--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_13_37.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_13_37.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3270928.151071352</v>
+        <v>3268551.072204942</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>9234840.036627067</v>
+        <v>9234840.036627065</v>
       </c>
     </row>
     <row r="8">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8137101.009915587</v>
+        <v>8137101.009915588</v>
       </c>
     </row>
     <row r="11">
@@ -680,7 +680,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>6.056421089299432</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -710,7 +710,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>6.056421089299432</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -735,11 +735,11 @@
         </is>
       </c>
       <c r="B3" t="n">
+        <v>6.056421089299432</v>
+      </c>
+      <c r="C3" t="n">
         <v>6.876045741711437</v>
       </c>
-      <c r="C3" t="n">
-        <v>5.309829763041575</v>
-      </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
@@ -759,7 +759,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -783,28 +783,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
+        <v>0</v>
+      </c>
+      <c r="S3" t="n">
+        <v>0</v>
+      </c>
+      <c r="T3" t="n">
+        <v>0</v>
+      </c>
+      <c r="U3" t="n">
+        <v>0</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="n">
+        <v>0</v>
+      </c>
+      <c r="X3" t="n">
         <v>6.876045741711437</v>
       </c>
-      <c r="S3" t="n">
+      <c r="Y3" t="n">
         <v>6.876045741711437</v>
-      </c>
-      <c r="T3" t="n">
-        <v>0</v>
-      </c>
-      <c r="U3" t="n">
-        <v>0</v>
-      </c>
-      <c r="V3" t="n">
-        <v>0</v>
-      </c>
-      <c r="W3" t="n">
-        <v>0</v>
-      </c>
-      <c r="X3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -823,7 +823,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>3.334980354192922</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -832,34 +832,34 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" t="n">
+        <v>0</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q4" t="n">
         <v>6.876045741711437</v>
-      </c>
-      <c r="I4" t="n">
-        <v>6.876045741711437</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0</v>
-      </c>
-      <c r="N4" t="n">
-        <v>0</v>
-      </c>
-      <c r="O4" t="n">
-        <v>0</v>
-      </c>
-      <c r="P4" t="n">
-        <v>2.721440735106512</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>6.876045741711437</v>
@@ -874,10 +874,10 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>6.056421089299432</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -893,7 +893,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>6.056421089299432</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -917,43 +917,43 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>0</v>
+      </c>
+      <c r="R5" t="n">
+        <v>0</v>
+      </c>
+      <c r="S5" t="n">
+        <v>0</v>
+      </c>
+      <c r="T5" t="n">
+        <v>0</v>
+      </c>
+      <c r="U5" t="n">
+        <v>0</v>
+      </c>
+      <c r="V5" t="n">
         <v>6.876045741711437</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>6.05642108929943</v>
-      </c>
-      <c r="R5" t="n">
-        <v>0</v>
-      </c>
-      <c r="S5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T5" t="n">
-        <v>0</v>
-      </c>
-      <c r="U5" t="n">
-        <v>0</v>
-      </c>
-      <c r="V5" t="n">
-        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -972,7 +972,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>5.309829763041575</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -981,7 +981,7 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>6.056421089299432</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -996,7 +996,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -1026,22 +1026,22 @@
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="W6" t="n">
-        <v>6.876045741711437</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>6.876045741711437</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>6.876045741711437</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1078,7 +1078,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>6.876045741711437</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1093,22 +1093,22 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>6.876045741711437</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="S7" t="n">
-        <v>3.334980354192922</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1117,7 +1117,7 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>6.056421089299432</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1151,10 +1151,10 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>6.602605461619507</v>
       </c>
       <c r="J8" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -1175,13 +1175,13 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>15.26809192273228</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1196,7 +1196,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1212,67 +1212,67 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>12.73205987707308</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>0</v>
+      </c>
+      <c r="R9" t="n">
         <v>15.30273751513505</v>
       </c>
-      <c r="E9" t="n">
+      <c r="S9" t="n">
+        <v>0</v>
+      </c>
+      <c r="T9" t="n">
+        <v>0</v>
+      </c>
+      <c r="U9" t="n">
+        <v>13.47865120333094</v>
+      </c>
+      <c r="V9" t="n">
         <v>15.30273751513505</v>
       </c>
-      <c r="F9" t="n">
+      <c r="W9" t="n">
         <v>15.30273751513505</v>
-      </c>
-      <c r="G9" t="n">
-        <v>0</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>0.7465913262578567</v>
-      </c>
-      <c r="K9" t="n">
-        <v>0</v>
-      </c>
-      <c r="L9" t="n">
-        <v>0</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0</v>
-      </c>
-      <c r="O9" t="n">
-        <v>0</v>
-      </c>
-      <c r="P9" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>0</v>
-      </c>
-      <c r="R9" t="n">
-        <v>0</v>
-      </c>
-      <c r="S9" t="n">
-        <v>0</v>
-      </c>
-      <c r="T9" t="n">
-        <v>0</v>
-      </c>
-      <c r="U9" t="n">
-        <v>0</v>
-      </c>
-      <c r="V9" t="n">
-        <v>0</v>
-      </c>
-      <c r="W9" t="n">
-        <v>0</v>
       </c>
       <c r="X9" t="n">
         <v>0</v>
@@ -1294,67 +1294,67 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>0</v>
+      </c>
+      <c r="R10" t="n">
         <v>15.30273751513505</v>
       </c>
-      <c r="E10" t="n">
+      <c r="S10" t="n">
         <v>15.30273751513505</v>
       </c>
-      <c r="F10" t="n">
-        <v>0</v>
-      </c>
-      <c r="G10" t="n">
-        <v>0</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" t="n">
-        <v>0</v>
-      </c>
-      <c r="K10" t="n">
+      <c r="T10" t="n">
+        <v>0</v>
+      </c>
+      <c r="U10" t="n">
+        <v>0</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="n">
         <v>13.47865120333094</v>
       </c>
-      <c r="L10" t="n">
-        <v>0</v>
-      </c>
-      <c r="M10" t="n">
-        <v>0</v>
-      </c>
-      <c r="N10" t="n">
-        <v>0</v>
-      </c>
-      <c r="O10" t="n">
-        <v>0</v>
-      </c>
-      <c r="P10" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q10" t="n">
+      <c r="X10" t="n">
         <v>15.30273751513505</v>
-      </c>
-      <c r="R10" t="n">
-        <v>0</v>
-      </c>
-      <c r="S10" t="n">
-        <v>0</v>
-      </c>
-      <c r="T10" t="n">
-        <v>0</v>
-      </c>
-      <c r="U10" t="n">
-        <v>0</v>
-      </c>
-      <c r="V10" t="n">
-        <v>0</v>
-      </c>
-      <c r="W10" t="n">
-        <v>0</v>
-      </c>
-      <c r="X10" t="n">
-        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1370,22 +1370,22 @@
         <v>335.1229781653652</v>
       </c>
       <c r="C11" t="n">
-        <v>317.6620282728922</v>
+        <v>317.6620282728921</v>
       </c>
       <c r="D11" t="n">
-        <v>307.0721781225676</v>
+        <v>307.0721781225675</v>
       </c>
       <c r="E11" t="n">
         <v>334.3195065741464</v>
       </c>
       <c r="F11" t="n">
-        <v>359.2651822435961</v>
+        <v>359.265182243596</v>
       </c>
       <c r="G11" t="n">
-        <v>363.3421963746779</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>247.3178024630195</v>
+        <v>247.3178024630194</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1418,22 +1418,22 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>62.29092681326759</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>156.444272186665</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>203.3868151983338</v>
       </c>
       <c r="V11" t="n">
-        <v>280.1413949720196</v>
+        <v>280.1413949720195</v>
       </c>
       <c r="W11" t="n">
-        <v>222.8743888551793</v>
+        <v>301.6301052192976</v>
       </c>
       <c r="X11" t="n">
-        <v>322.1202371803537</v>
+        <v>184.5847029926472</v>
       </c>
       <c r="Y11" t="n">
         <v>338.6270751579382</v>
@@ -1607,16 +1607,16 @@
         <v>335.1229781653652</v>
       </c>
       <c r="C14" t="n">
-        <v>317.6620282728921</v>
+        <v>317.6620282728922</v>
       </c>
       <c r="D14" t="n">
-        <v>307.0721781225676</v>
+        <v>165.4596298037798</v>
       </c>
       <c r="E14" t="n">
         <v>334.3195065741464</v>
       </c>
       <c r="F14" t="n">
-        <v>359.2651822435961</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>363.3421963746779</v>
@@ -1655,16 +1655,16 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>62.29092681326762</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>156.444272186665</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>203.3868151983338</v>
       </c>
       <c r="V14" t="n">
-        <v>201.3856786079007</v>
+        <v>280.1413949720196</v>
       </c>
       <c r="W14" t="n">
         <v>301.6301052192977</v>
@@ -1771,19 +1771,19 @@
         <v>101.004609520097</v>
       </c>
       <c r="E16" t="n">
-        <v>98.82309914845379</v>
+        <v>98.82309914845382</v>
       </c>
       <c r="F16" t="n">
-        <v>97.81018452481587</v>
+        <v>97.8101845248159</v>
       </c>
       <c r="G16" t="n">
         <v>118.4290002129897</v>
       </c>
       <c r="H16" t="n">
-        <v>97.26911716285218</v>
+        <v>97.26911716285221</v>
       </c>
       <c r="I16" t="n">
-        <v>49.16424268872484</v>
+        <v>49.16424268872433</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,22 +1810,22 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>41.95327340804133</v>
+        <v>41.95327340804135</v>
       </c>
       <c r="S16" t="n">
-        <v>142.4031100299746</v>
+        <v>142.4031100299747</v>
       </c>
       <c r="T16" t="n">
-        <v>171.998140891473</v>
+        <v>171.9981408914731</v>
       </c>
       <c r="U16" t="n">
-        <v>238.6017413685198</v>
+        <v>238.6017413685199</v>
       </c>
       <c r="V16" t="n">
-        <v>204.5267798257126</v>
+        <v>204.5267798257127</v>
       </c>
       <c r="W16" t="n">
-        <v>238.9121348384756</v>
+        <v>238.9121348384757</v>
       </c>
       <c r="X16" t="n">
         <v>178.0987918909218</v>
@@ -1856,7 +1856,7 @@
         <v>359.2651822435961</v>
       </c>
       <c r="G17" t="n">
-        <v>363.3421963746779</v>
+        <v>363.3421963746788</v>
       </c>
       <c r="H17" t="n">
         <v>247.3178024630195</v>
@@ -1892,10 +1892,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>62.29092681326654</v>
+        <v>62.29092681326765</v>
       </c>
       <c r="T17" t="n">
-        <v>156.444272186665</v>
+        <v>156.4442721866651</v>
       </c>
       <c r="U17" t="n">
         <v>203.3868151983338</v>
@@ -1999,7 +1999,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>132.2211166838219</v>
+        <v>132.221116683822</v>
       </c>
       <c r="C19" t="n">
         <v>119.6359576005125</v>
@@ -2008,19 +2008,19 @@
         <v>101.004609520097</v>
       </c>
       <c r="E19" t="n">
-        <v>98.82309914845382</v>
+        <v>98.82309914845385</v>
       </c>
       <c r="F19" t="n">
-        <v>97.8101845248159</v>
+        <v>97.81018452481592</v>
       </c>
       <c r="G19" t="n">
         <v>118.4290002129897</v>
       </c>
       <c r="H19" t="n">
-        <v>97.26911716285221</v>
+        <v>97.26911716285224</v>
       </c>
       <c r="I19" t="n">
-        <v>49.16424268872433</v>
+        <v>49.16424268872436</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>41.95327340804135</v>
+        <v>41.95327340804138</v>
       </c>
       <c r="S19" t="n">
         <v>142.4031100299747</v>
@@ -2068,7 +2068,7 @@
         <v>178.0987918909218</v>
       </c>
       <c r="Y19" t="n">
-        <v>170.9737898539794</v>
+        <v>170.9737898539795</v>
       </c>
     </row>
     <row r="20">
@@ -2081,7 +2081,7 @@
         <v>335.1229781653652</v>
       </c>
       <c r="C20" t="n">
-        <v>317.6620282728921</v>
+        <v>317.6620282728922</v>
       </c>
       <c r="D20" t="n">
         <v>307.0721781225676</v>
@@ -2129,16 +2129,16 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>62.29092681326759</v>
+        <v>62.29092681326765</v>
       </c>
       <c r="T20" t="n">
-        <v>156.444272186665</v>
+        <v>156.4442721866651</v>
       </c>
       <c r="U20" t="n">
         <v>203.3868151983338</v>
       </c>
       <c r="V20" t="n">
-        <v>280.1413949720195</v>
+        <v>280.1413949720196</v>
       </c>
       <c r="W20" t="n">
         <v>301.6301052192977</v>
@@ -2236,7 +2236,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>132.2211166838219</v>
+        <v>132.221116683822</v>
       </c>
       <c r="C22" t="n">
         <v>119.6359576005125</v>
@@ -2245,19 +2245,19 @@
         <v>101.004609520097</v>
       </c>
       <c r="E22" t="n">
-        <v>98.82309914845379</v>
+        <v>98.82309914845385</v>
       </c>
       <c r="F22" t="n">
-        <v>97.81018452481587</v>
+        <v>97.81018452481592</v>
       </c>
       <c r="G22" t="n">
         <v>118.4290002129897</v>
       </c>
       <c r="H22" t="n">
-        <v>97.26911716285218</v>
+        <v>97.26911716285224</v>
       </c>
       <c r="I22" t="n">
-        <v>49.1642426887243</v>
+        <v>49.16424268872436</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,28 +2284,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>41.95327340804133</v>
+        <v>41.95327340804138</v>
       </c>
       <c r="S22" t="n">
-        <v>142.4031100299746</v>
+        <v>142.4031100299747</v>
       </c>
       <c r="T22" t="n">
-        <v>171.998140891473</v>
+        <v>171.9981408914731</v>
       </c>
       <c r="U22" t="n">
-        <v>238.6017413685198</v>
+        <v>238.6017413685199</v>
       </c>
       <c r="V22" t="n">
-        <v>204.5267798257126</v>
+        <v>204.5267798257127</v>
       </c>
       <c r="W22" t="n">
-        <v>238.9121348384756</v>
+        <v>238.9121348384757</v>
       </c>
       <c r="X22" t="n">
         <v>178.0987918909218</v>
       </c>
       <c r="Y22" t="n">
-        <v>170.9737898539794</v>
+        <v>170.9737898539795</v>
       </c>
     </row>
     <row r="23">
@@ -2318,7 +2318,7 @@
         <v>335.1229781653652</v>
       </c>
       <c r="C23" t="n">
-        <v>317.6620282728921</v>
+        <v>317.6620282728922</v>
       </c>
       <c r="D23" t="n">
         <v>307.0721781225676</v>
@@ -2366,16 +2366,16 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>62.29092681326759</v>
+        <v>62.29092681326765</v>
       </c>
       <c r="T23" t="n">
-        <v>156.444272186665</v>
+        <v>156.4442721866651</v>
       </c>
       <c r="U23" t="n">
         <v>203.3868151983338</v>
       </c>
       <c r="V23" t="n">
-        <v>280.1413949720195</v>
+        <v>280.1413949720196</v>
       </c>
       <c r="W23" t="n">
         <v>301.6301052192977</v>
@@ -2473,7 +2473,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>132.2211166838219</v>
+        <v>132.221116683822</v>
       </c>
       <c r="C25" t="n">
         <v>119.6359576005125</v>
@@ -2482,19 +2482,19 @@
         <v>101.004609520097</v>
       </c>
       <c r="E25" t="n">
-        <v>98.82309914845379</v>
+        <v>98.82309914845385</v>
       </c>
       <c r="F25" t="n">
-        <v>97.81018452481587</v>
+        <v>97.81018452481592</v>
       </c>
       <c r="G25" t="n">
         <v>118.4290002129897</v>
       </c>
       <c r="H25" t="n">
-        <v>97.26911716285218</v>
+        <v>97.26911716285224</v>
       </c>
       <c r="I25" t="n">
-        <v>49.1642426887243</v>
+        <v>49.16424268872327</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,28 +2521,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>41.95327340804133</v>
+        <v>41.95327340804138</v>
       </c>
       <c r="S25" t="n">
-        <v>142.4031100299746</v>
+        <v>142.4031100299747</v>
       </c>
       <c r="T25" t="n">
-        <v>171.998140891473</v>
+        <v>171.9981408914731</v>
       </c>
       <c r="U25" t="n">
-        <v>238.6017413685198</v>
+        <v>238.6017413685199</v>
       </c>
       <c r="V25" t="n">
-        <v>204.5267798257126</v>
+        <v>204.5267798257127</v>
       </c>
       <c r="W25" t="n">
-        <v>238.9121348384756</v>
+        <v>238.9121348384757</v>
       </c>
       <c r="X25" t="n">
         <v>178.0987918909218</v>
       </c>
       <c r="Y25" t="n">
-        <v>170.9737898539794</v>
+        <v>170.9737898539795</v>
       </c>
     </row>
     <row r="26">
@@ -2710,10 +2710,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -2722,16 +2722,16 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>21.85088914489137</v>
       </c>
       <c r="G28" t="n">
-        <v>166.0398637111051</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>96.77510618683968</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2764,10 +2764,10 @@
         <v>190.01397352809</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>219.6090043895884</v>
       </c>
       <c r="U28" t="n">
-        <v>220.112926404503</v>
+        <v>286.2126048666352</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2776,7 +2776,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2947,13 +2947,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>53.65661457025597</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -2962,7 +2962,7 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>166.0398637111051</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>89.5641369061567</v>
       </c>
       <c r="S31" t="n">
         <v>190.01397352809</v>
@@ -3013,7 +3013,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>157.3786685018886</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -3184,7 +3184,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>177.6518264863172</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -3193,19 +3193,19 @@
         <v>146.4353193225922</v>
       </c>
       <c r="E34" t="n">
-        <v>144.253808950949</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>163.8597100154849</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>142.6998269653474</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>94.59495249121954</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,10 +3232,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>87.38398321053657</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>187.8338198324699</v>
       </c>
       <c r="T34" t="n">
         <v>217.4288506939683</v>
@@ -3244,13 +3244,13 @@
         <v>284.0324511710151</v>
       </c>
       <c r="V34" t="n">
-        <v>249.9574896282079</v>
+        <v>236.973383178674</v>
       </c>
       <c r="W34" t="n">
         <v>284.3428446409709</v>
       </c>
       <c r="X34" t="n">
-        <v>118.0067263502064</v>
+        <v>223.529501693417</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>62.29092681326759</v>
+        <v>62.29092681326762</v>
       </c>
       <c r="T35" t="n">
         <v>156.444272186665</v>
@@ -3430,19 +3430,19 @@
         <v>101.004609520097</v>
       </c>
       <c r="E37" t="n">
-        <v>98.82309914845379</v>
+        <v>98.82309914845382</v>
       </c>
       <c r="F37" t="n">
-        <v>97.81018452481587</v>
+        <v>97.8101845248159</v>
       </c>
       <c r="G37" t="n">
         <v>118.4290002129897</v>
       </c>
       <c r="H37" t="n">
-        <v>97.26911716285218</v>
+        <v>97.26911716285221</v>
       </c>
       <c r="I37" t="n">
-        <v>49.1642426887243</v>
+        <v>49.16424268872433</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,22 +3469,22 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.95327340804133</v>
+        <v>41.95327340804135</v>
       </c>
       <c r="S37" t="n">
-        <v>142.4031100299746</v>
+        <v>142.4031100299747</v>
       </c>
       <c r="T37" t="n">
-        <v>171.998140891473</v>
+        <v>171.9981408914731</v>
       </c>
       <c r="U37" t="n">
-        <v>238.6017413685198</v>
+        <v>238.6017413685199</v>
       </c>
       <c r="V37" t="n">
-        <v>204.5267798257126</v>
+        <v>204.5267798257127</v>
       </c>
       <c r="W37" t="n">
-        <v>238.9121348384756</v>
+        <v>238.9121348384757</v>
       </c>
       <c r="X37" t="n">
         <v>178.0987918909218</v>
@@ -3503,7 +3503,7 @@
         <v>335.1229781653652</v>
       </c>
       <c r="C38" t="n">
-        <v>317.6620282728921</v>
+        <v>317.6620282728922</v>
       </c>
       <c r="D38" t="n">
         <v>307.0721781225676</v>
@@ -3560,7 +3560,7 @@
         <v>203.3868151983338</v>
       </c>
       <c r="V38" t="n">
-        <v>280.1413949720195</v>
+        <v>280.1413949720196</v>
       </c>
       <c r="W38" t="n">
         <v>301.6301052192977</v>
@@ -3667,19 +3667,19 @@
         <v>101.004609520097</v>
       </c>
       <c r="E40" t="n">
-        <v>98.82309914845379</v>
+        <v>98.82309914845381</v>
       </c>
       <c r="F40" t="n">
-        <v>97.81018452481587</v>
+        <v>97.81018452481588</v>
       </c>
       <c r="G40" t="n">
         <v>118.4290002129897</v>
       </c>
       <c r="H40" t="n">
-        <v>97.26911716285218</v>
+        <v>97.2691171628522</v>
       </c>
       <c r="I40" t="n">
-        <v>49.1642426887243</v>
+        <v>49.16424268872431</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,22 +3706,22 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.95327340804133</v>
+        <v>41.95327340804135</v>
       </c>
       <c r="S40" t="n">
-        <v>142.4031100299746</v>
+        <v>142.4031100299747</v>
       </c>
       <c r="T40" t="n">
-        <v>171.998140891473</v>
+        <v>171.9981408914731</v>
       </c>
       <c r="U40" t="n">
-        <v>238.6017413685198</v>
+        <v>238.6017413685199</v>
       </c>
       <c r="V40" t="n">
-        <v>204.5267798257126</v>
+        <v>204.5267798257127</v>
       </c>
       <c r="W40" t="n">
-        <v>238.9121348384756</v>
+        <v>238.9121348384757</v>
       </c>
       <c r="X40" t="n">
         <v>178.0987918909218</v>
@@ -3737,25 +3737,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>335.1229781653652</v>
+        <v>335.1229781653653</v>
       </c>
       <c r="C41" t="n">
-        <v>317.6620282728921</v>
+        <v>317.6620282728923</v>
       </c>
       <c r="D41" t="n">
-        <v>307.0721781225676</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>334.3195065741464</v>
+        <v>140.5139541343284</v>
       </c>
       <c r="F41" t="n">
         <v>359.2651822435961</v>
       </c>
       <c r="G41" t="n">
-        <v>363.3421963746779</v>
+        <v>363.342196374678</v>
       </c>
       <c r="H41" t="n">
-        <v>26.58146687265418</v>
+        <v>247.3178024630195</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3788,16 +3788,16 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>62.29092681326759</v>
+        <v>62.29092681326765</v>
       </c>
       <c r="T41" t="n">
-        <v>156.444272186665</v>
+        <v>156.4442721866651</v>
       </c>
       <c r="U41" t="n">
-        <v>203.3868151983338</v>
+        <v>203.3868151983339</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>280.1413949720196</v>
       </c>
       <c r="W41" t="n">
         <v>301.6301052192977</v>
@@ -3806,7 +3806,7 @@
         <v>322.1202371803537</v>
       </c>
       <c r="Y41" t="n">
-        <v>338.6270751579382</v>
+        <v>338.6270751579383</v>
       </c>
     </row>
     <row r="42">
@@ -3895,7 +3895,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>132.2211166838219</v>
+        <v>132.221116683822</v>
       </c>
       <c r="C43" t="n">
         <v>119.6359576005125</v>
@@ -3904,19 +3904,19 @@
         <v>101.004609520097</v>
       </c>
       <c r="E43" t="n">
-        <v>98.82309914845379</v>
+        <v>98.82309914845386</v>
       </c>
       <c r="F43" t="n">
-        <v>97.81018452481587</v>
+        <v>97.81018452481594</v>
       </c>
       <c r="G43" t="n">
         <v>118.4290002129897</v>
       </c>
       <c r="H43" t="n">
-        <v>97.26911716285218</v>
+        <v>97.26911716285225</v>
       </c>
       <c r="I43" t="n">
-        <v>49.16424268872484</v>
+        <v>49.16424268872327</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,28 +3943,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.95327340804133</v>
+        <v>41.9532734080414</v>
       </c>
       <c r="S43" t="n">
-        <v>142.4031100299747</v>
+        <v>142.4031100299748</v>
       </c>
       <c r="T43" t="n">
-        <v>171.998140891473</v>
+        <v>171.9981408914731</v>
       </c>
       <c r="U43" t="n">
-        <v>238.6017413685198</v>
+        <v>238.6017413685199</v>
       </c>
       <c r="V43" t="n">
-        <v>204.5267798257126</v>
+        <v>204.5267798257127</v>
       </c>
       <c r="W43" t="n">
-        <v>238.9121348384756</v>
+        <v>238.9121348384757</v>
       </c>
       <c r="X43" t="n">
-        <v>178.0987918909218</v>
+        <v>178.0987918909219</v>
       </c>
       <c r="Y43" t="n">
-        <v>170.9737898539794</v>
+        <v>170.9737898539795</v>
       </c>
     </row>
     <row r="44">
@@ -3977,13 +3977,13 @@
         <v>335.1229781653652</v>
       </c>
       <c r="C44" t="n">
-        <v>317.6620282728921</v>
+        <v>317.6620282728922</v>
       </c>
       <c r="D44" t="n">
         <v>307.0721781225676</v>
       </c>
       <c r="E44" t="n">
-        <v>334.3195065741464</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
         <v>359.2651822435961</v>
@@ -3992,7 +3992,7 @@
         <v>363.3421963746779</v>
       </c>
       <c r="H44" t="n">
-        <v>168.5620860989016</v>
+        <v>80.75957847478057</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4025,16 +4025,16 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>62.29092681326762</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>156.444272186665</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>203.3868151983338</v>
       </c>
       <c r="V44" t="n">
-        <v>280.1413949720195</v>
+        <v>280.1413949720196</v>
       </c>
       <c r="W44" t="n">
         <v>301.6301052192977</v>
@@ -4141,19 +4141,19 @@
         <v>101.004609520097</v>
       </c>
       <c r="E46" t="n">
-        <v>98.82309914845379</v>
+        <v>98.82309914845382</v>
       </c>
       <c r="F46" t="n">
-        <v>97.81018452481587</v>
+        <v>97.8101845248159</v>
       </c>
       <c r="G46" t="n">
         <v>118.4290002129897</v>
       </c>
       <c r="H46" t="n">
-        <v>97.26911716285218</v>
+        <v>97.26911716285221</v>
       </c>
       <c r="I46" t="n">
-        <v>49.1642426887253</v>
+        <v>49.16424268872433</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,22 +4180,22 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.95327340804133</v>
+        <v>41.95327340804135</v>
       </c>
       <c r="S46" t="n">
         <v>142.4031100299747</v>
       </c>
       <c r="T46" t="n">
-        <v>171.998140891473</v>
+        <v>171.9981408914731</v>
       </c>
       <c r="U46" t="n">
-        <v>238.6017413685198</v>
+        <v>238.6017413685199</v>
       </c>
       <c r="V46" t="n">
-        <v>204.5267798257126</v>
+        <v>204.5267798257127</v>
       </c>
       <c r="W46" t="n">
-        <v>238.9121348384756</v>
+        <v>238.9121348384757</v>
       </c>
       <c r="X46" t="n">
         <v>178.0987918909218</v>
@@ -4304,46 +4304,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>20.55868221764227</v>
+        <v>14.44108515774386</v>
       </c>
       <c r="C2" t="n">
-        <v>20.55868221764227</v>
+        <v>14.44108515774386</v>
       </c>
       <c r="D2" t="n">
-        <v>20.55868221764227</v>
+        <v>14.44108515774386</v>
       </c>
       <c r="E2" t="n">
-        <v>20.55868221764227</v>
+        <v>14.44108515774386</v>
       </c>
       <c r="F2" t="n">
-        <v>13.6131814684388</v>
+        <v>7.495584408540386</v>
       </c>
       <c r="G2" t="n">
-        <v>6.667680719235332</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="H2" t="n">
-        <v>6.667680719235332</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="I2" t="n">
-        <v>6.667680719235332</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="J2" t="n">
         <v>0.5500836593369149</v>
       </c>
       <c r="K2" t="n">
-        <v>0.5500836593369149</v>
+        <v>7.357368943631237</v>
       </c>
       <c r="L2" t="n">
-        <v>7.357368943631237</v>
+        <v>13.8896123982571</v>
       </c>
       <c r="M2" t="n">
-        <v>14.16465422792556</v>
+        <v>20.69689768255142</v>
       </c>
       <c r="N2" t="n">
-        <v>14.16465422792556</v>
+        <v>20.69689768255142</v>
       </c>
       <c r="O2" t="n">
-        <v>20.97193951221988</v>
+        <v>20.69689768255142</v>
       </c>
       <c r="P2" t="n">
         <v>27.50418296684575</v>
@@ -4358,22 +4358,22 @@
         <v>20.55868221764227</v>
       </c>
       <c r="T2" t="n">
-        <v>20.55868221764227</v>
+        <v>14.44108515774386</v>
       </c>
       <c r="U2" t="n">
-        <v>20.55868221764227</v>
+        <v>14.44108515774386</v>
       </c>
       <c r="V2" t="n">
-        <v>20.55868221764227</v>
+        <v>14.44108515774386</v>
       </c>
       <c r="W2" t="n">
-        <v>20.55868221764227</v>
+        <v>14.44108515774386</v>
       </c>
       <c r="X2" t="n">
-        <v>20.55868221764227</v>
+        <v>14.44108515774386</v>
       </c>
       <c r="Y2" t="n">
-        <v>20.55868221764227</v>
+        <v>14.44108515774386</v>
       </c>
     </row>
     <row r="3">
@@ -4383,28 +4383,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>6.667680719235332</v>
+        <v>7.495584408540386</v>
       </c>
       <c r="C3" t="n">
-        <v>1.304216312122629</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="D3" t="n">
-        <v>1.304216312122629</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="E3" t="n">
-        <v>1.304216312122629</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="F3" t="n">
-        <v>1.304216312122629</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="G3" t="n">
-        <v>1.304216312122629</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="H3" t="n">
-        <v>1.304216312122629</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="I3" t="n">
-        <v>1.304216312122629</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="J3" t="n">
         <v>0.5500836593369149</v>
@@ -4413,16 +4413,16 @@
         <v>0.5500836593369149</v>
       </c>
       <c r="L3" t="n">
-        <v>0.5500836593369149</v>
+        <v>7.357368943631237</v>
       </c>
       <c r="M3" t="n">
-        <v>0.5500836593369149</v>
+        <v>7.357368943631237</v>
       </c>
       <c r="N3" t="n">
-        <v>7.082327113962777</v>
+        <v>7.357368943631237</v>
       </c>
       <c r="O3" t="n">
-        <v>13.8896123982571</v>
+        <v>14.16465422792556</v>
       </c>
       <c r="P3" t="n">
         <v>20.69689768255142</v>
@@ -4431,25 +4431,25 @@
         <v>27.50418296684575</v>
       </c>
       <c r="R3" t="n">
+        <v>27.50418296684575</v>
+      </c>
+      <c r="S3" t="n">
+        <v>27.50418296684575</v>
+      </c>
+      <c r="T3" t="n">
+        <v>27.50418296684575</v>
+      </c>
+      <c r="U3" t="n">
+        <v>27.50418296684575</v>
+      </c>
+      <c r="V3" t="n">
+        <v>27.50418296684575</v>
+      </c>
+      <c r="W3" t="n">
+        <v>27.50418296684575</v>
+      </c>
+      <c r="X3" t="n">
         <v>20.55868221764227</v>
-      </c>
-      <c r="S3" t="n">
-        <v>13.6131814684388</v>
-      </c>
-      <c r="T3" t="n">
-        <v>13.6131814684388</v>
-      </c>
-      <c r="U3" t="n">
-        <v>13.6131814684388</v>
-      </c>
-      <c r="V3" t="n">
-        <v>13.6131814684388</v>
-      </c>
-      <c r="W3" t="n">
-        <v>13.6131814684388</v>
-      </c>
-      <c r="X3" t="n">
-        <v>13.6131814684388</v>
       </c>
       <c r="Y3" t="n">
         <v>13.6131814684388</v>
@@ -4462,25 +4462,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>17.80975218218115</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="C4" t="n">
-        <v>17.80975218218115</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="D4" t="n">
-        <v>17.80975218218115</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="E4" t="n">
-        <v>14.44108515774386</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="F4" t="n">
-        <v>14.44108515774386</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="G4" t="n">
-        <v>14.44108515774386</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="H4" t="n">
-        <v>7.495584408540386</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="I4" t="n">
         <v>0.5500836593369149</v>
@@ -4492,7 +4492,7 @@
         <v>0.5500836593369149</v>
       </c>
       <c r="L4" t="n">
-        <v>7.082327113962777</v>
+        <v>7.357368943631237</v>
       </c>
       <c r="M4" t="n">
         <v>13.8896123982571</v>
@@ -4504,34 +4504,34 @@
         <v>27.50418296684575</v>
       </c>
       <c r="P4" t="n">
-        <v>24.75525293138463</v>
+        <v>27.50418296684575</v>
       </c>
       <c r="Q4" t="n">
-        <v>24.75525293138463</v>
+        <v>20.55868221764227</v>
       </c>
       <c r="R4" t="n">
-        <v>17.80975218218115</v>
+        <v>13.6131814684388</v>
       </c>
       <c r="S4" t="n">
-        <v>17.80975218218115</v>
+        <v>13.6131814684388</v>
       </c>
       <c r="T4" t="n">
-        <v>17.80975218218115</v>
+        <v>13.6131814684388</v>
       </c>
       <c r="U4" t="n">
-        <v>17.80975218218115</v>
+        <v>13.6131814684388</v>
       </c>
       <c r="V4" t="n">
-        <v>17.80975218218115</v>
+        <v>6.667680719235332</v>
       </c>
       <c r="W4" t="n">
-        <v>17.80975218218115</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="X4" t="n">
-        <v>17.80975218218115</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="Y4" t="n">
-        <v>17.80975218218115</v>
+        <v>0.5500836593369149</v>
       </c>
     </row>
     <row r="5">
@@ -4541,28 +4541,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>21.38658590694733</v>
+        <v>14.44108515774386</v>
       </c>
       <c r="C5" t="n">
-        <v>21.38658590694733</v>
+        <v>14.44108515774386</v>
       </c>
       <c r="D5" t="n">
-        <v>21.38658590694733</v>
+        <v>14.44108515774386</v>
       </c>
       <c r="E5" t="n">
-        <v>21.38658590694733</v>
+        <v>14.44108515774386</v>
       </c>
       <c r="F5" t="n">
-        <v>14.44108515774386</v>
+        <v>7.495584408540386</v>
       </c>
       <c r="G5" t="n">
-        <v>7.495584408540386</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="H5" t="n">
-        <v>7.495584408540386</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="I5" t="n">
-        <v>7.495584408540386</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="J5" t="n">
         <v>0.5500836593369149</v>
@@ -4574,43 +4574,43 @@
         <v>7.357368943631237</v>
       </c>
       <c r="M5" t="n">
-        <v>14.16465422792556</v>
+        <v>13.8896123982571</v>
       </c>
       <c r="N5" t="n">
-        <v>20.97193951221988</v>
+        <v>13.8896123982571</v>
       </c>
       <c r="O5" t="n">
-        <v>27.50418296684575</v>
+        <v>20.69689768255142</v>
       </c>
       <c r="P5" t="n">
         <v>27.50418296684575</v>
       </c>
       <c r="Q5" t="n">
-        <v>21.38658590694733</v>
+        <v>27.50418296684575</v>
       </c>
       <c r="R5" t="n">
-        <v>21.38658590694733</v>
+        <v>27.50418296684575</v>
       </c>
       <c r="S5" t="n">
-        <v>21.38658590694733</v>
+        <v>27.50418296684575</v>
       </c>
       <c r="T5" t="n">
-        <v>21.38658590694733</v>
+        <v>27.50418296684575</v>
       </c>
       <c r="U5" t="n">
-        <v>21.38658590694733</v>
+        <v>27.50418296684575</v>
       </c>
       <c r="V5" t="n">
-        <v>21.38658590694733</v>
+        <v>20.55868221764227</v>
       </c>
       <c r="W5" t="n">
-        <v>21.38658590694733</v>
+        <v>20.55868221764227</v>
       </c>
       <c r="X5" t="n">
-        <v>21.38658590694733</v>
+        <v>20.55868221764227</v>
       </c>
       <c r="Y5" t="n">
-        <v>21.38658590694733</v>
+        <v>20.55868221764227</v>
       </c>
     </row>
     <row r="6">
@@ -4620,28 +4620,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1.304216312122629</v>
+        <v>6.667680719235332</v>
       </c>
       <c r="C6" t="n">
-        <v>1.304216312122629</v>
+        <v>6.667680719235332</v>
       </c>
       <c r="D6" t="n">
-        <v>1.304216312122629</v>
+        <v>6.667680719235332</v>
       </c>
       <c r="E6" t="n">
-        <v>1.304216312122629</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="F6" t="n">
-        <v>1.304216312122629</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="G6" t="n">
-        <v>1.304216312122629</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="H6" t="n">
-        <v>1.304216312122629</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="I6" t="n">
-        <v>1.304216312122629</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="J6" t="n">
         <v>0.5500836593369149</v>
@@ -4650,7 +4650,7 @@
         <v>7.357368943631237</v>
       </c>
       <c r="L6" t="n">
-        <v>14.16465422792556</v>
+        <v>13.8896123982571</v>
       </c>
       <c r="M6" t="n">
         <v>20.69689768255142</v>
@@ -4674,22 +4674,22 @@
         <v>27.50418296684575</v>
       </c>
       <c r="T6" t="n">
-        <v>27.50418296684575</v>
+        <v>20.55868221764227</v>
       </c>
       <c r="U6" t="n">
-        <v>27.50418296684575</v>
+        <v>20.55868221764227</v>
       </c>
       <c r="V6" t="n">
-        <v>27.50418296684575</v>
+        <v>13.6131814684388</v>
       </c>
       <c r="W6" t="n">
-        <v>20.55868221764227</v>
+        <v>13.6131814684388</v>
       </c>
       <c r="X6" t="n">
         <v>13.6131814684388</v>
       </c>
       <c r="Y6" t="n">
-        <v>6.667680719235332</v>
+        <v>13.6131814684388</v>
       </c>
     </row>
     <row r="7">
@@ -4699,31 +4699,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>7.495584408540386</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="C7" t="n">
-        <v>7.495584408540386</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="D7" t="n">
-        <v>7.495584408540386</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="E7" t="n">
-        <v>7.495584408540386</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="F7" t="n">
-        <v>7.495584408540386</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="G7" t="n">
-        <v>7.495584408540386</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="H7" t="n">
-        <v>7.495584408540386</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="I7" t="n">
-        <v>7.495584408540386</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="J7" t="n">
-        <v>7.495584408540386</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="K7" t="n">
         <v>0.5500836593369149</v>
@@ -4741,34 +4741,34 @@
         <v>27.50418296684575</v>
       </c>
       <c r="P7" t="n">
-        <v>24.75525293138463</v>
+        <v>27.50418296684575</v>
       </c>
       <c r="Q7" t="n">
-        <v>17.80975218218115</v>
+        <v>27.50418296684575</v>
       </c>
       <c r="R7" t="n">
-        <v>10.86425143297768</v>
+        <v>20.55868221764227</v>
       </c>
       <c r="S7" t="n">
-        <v>7.495584408540386</v>
+        <v>13.6131814684388</v>
       </c>
       <c r="T7" t="n">
-        <v>7.495584408540386</v>
+        <v>13.6131814684388</v>
       </c>
       <c r="U7" t="n">
-        <v>7.495584408540386</v>
+        <v>6.667680719235332</v>
       </c>
       <c r="V7" t="n">
-        <v>7.495584408540386</v>
+        <v>6.667680719235332</v>
       </c>
       <c r="W7" t="n">
-        <v>7.495584408540386</v>
+        <v>6.667680719235332</v>
       </c>
       <c r="X7" t="n">
-        <v>7.495584408540386</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="Y7" t="n">
-        <v>7.495584408540386</v>
+        <v>0.5500836593369149</v>
       </c>
     </row>
     <row r="8">
@@ -4778,34 +4778,34 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>35.69701961884617</v>
+        <v>30.29632881784312</v>
       </c>
       <c r="C8" t="n">
-        <v>35.69701961884617</v>
+        <v>30.29632881784312</v>
       </c>
       <c r="D8" t="n">
-        <v>35.69701961884617</v>
+        <v>30.29632881784312</v>
       </c>
       <c r="E8" t="n">
-        <v>35.69701961884617</v>
+        <v>30.29632881784312</v>
       </c>
       <c r="F8" t="n">
-        <v>28.75151886964269</v>
+        <v>23.35082806863965</v>
       </c>
       <c r="G8" t="n">
-        <v>13.29420824829416</v>
+        <v>7.893517447291114</v>
       </c>
       <c r="H8" t="n">
-        <v>13.29420824829416</v>
+        <v>7.893517447291114</v>
       </c>
       <c r="I8" t="n">
-        <v>13.29420824829416</v>
+        <v>1.224219001210804</v>
       </c>
       <c r="J8" t="n">
         <v>1.224219001210804</v>
       </c>
       <c r="K8" t="n">
-        <v>1.224219001210804</v>
+        <v>16.37392914119451</v>
       </c>
       <c r="L8" t="n">
         <v>16.37392914119451</v>
@@ -4814,7 +4814,7 @@
         <v>31.52363928117821</v>
       </c>
       <c r="N8" t="n">
-        <v>46.0612399205565</v>
+        <v>46.6733494211619</v>
       </c>
       <c r="O8" t="n">
         <v>61.2109500605402</v>
@@ -4823,31 +4823,31 @@
         <v>61.2109500605402</v>
       </c>
       <c r="Q8" t="n">
-        <v>51.11933469231312</v>
+        <v>61.2109500605402</v>
       </c>
       <c r="R8" t="n">
-        <v>51.11933469231312</v>
+        <v>61.2109500605402</v>
       </c>
       <c r="S8" t="n">
-        <v>35.69701961884617</v>
+        <v>45.75363943919166</v>
       </c>
       <c r="T8" t="n">
-        <v>35.69701961884617</v>
+        <v>45.75363943919166</v>
       </c>
       <c r="U8" t="n">
-        <v>35.69701961884617</v>
+        <v>45.75363943919166</v>
       </c>
       <c r="V8" t="n">
-        <v>35.69701961884617</v>
+        <v>45.75363943919166</v>
       </c>
       <c r="W8" t="n">
-        <v>35.69701961884617</v>
+        <v>45.75363943919166</v>
       </c>
       <c r="X8" t="n">
-        <v>35.69701961884617</v>
+        <v>30.29632881784312</v>
       </c>
       <c r="Y8" t="n">
-        <v>35.69701961884617</v>
+        <v>30.29632881784312</v>
       </c>
     </row>
     <row r="9">
@@ -4857,28 +4857,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>61.2109500605402</v>
+        <v>1.224219001210804</v>
       </c>
       <c r="C9" t="n">
-        <v>48.35028351804213</v>
+        <v>1.224219001210804</v>
       </c>
       <c r="D9" t="n">
-        <v>32.89297289669359</v>
+        <v>1.224219001210804</v>
       </c>
       <c r="E9" t="n">
-        <v>17.43566227534506</v>
+        <v>1.224219001210804</v>
       </c>
       <c r="F9" t="n">
-        <v>1.978351653996518</v>
+        <v>1.224219001210804</v>
       </c>
       <c r="G9" t="n">
-        <v>1.978351653996518</v>
+        <v>1.224219001210804</v>
       </c>
       <c r="H9" t="n">
-        <v>1.978351653996518</v>
+        <v>1.224219001210804</v>
       </c>
       <c r="I9" t="n">
-        <v>1.978351653996518</v>
+        <v>1.224219001210804</v>
       </c>
       <c r="J9" t="n">
         <v>1.224219001210804</v>
@@ -4905,28 +4905,28 @@
         <v>61.2109500605402</v>
       </c>
       <c r="R9" t="n">
-        <v>61.2109500605402</v>
+        <v>45.75363943919166</v>
       </c>
       <c r="S9" t="n">
-        <v>61.2109500605402</v>
+        <v>45.75363943919166</v>
       </c>
       <c r="T9" t="n">
-        <v>61.2109500605402</v>
+        <v>45.75363943919166</v>
       </c>
       <c r="U9" t="n">
-        <v>61.2109500605402</v>
+        <v>32.13884024390788</v>
       </c>
       <c r="V9" t="n">
-        <v>61.2109500605402</v>
+        <v>16.68152962255934</v>
       </c>
       <c r="W9" t="n">
-        <v>61.2109500605402</v>
+        <v>1.224219001210804</v>
       </c>
       <c r="X9" t="n">
-        <v>61.2109500605402</v>
+        <v>1.224219001210804</v>
       </c>
       <c r="Y9" t="n">
-        <v>61.2109500605402</v>
+        <v>1.224219001210804</v>
       </c>
     </row>
     <row r="10">
@@ -4936,31 +4936,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>45.75363943919166</v>
+        <v>1.224219001210804</v>
       </c>
       <c r="C10" t="n">
-        <v>45.75363943919166</v>
+        <v>1.224219001210804</v>
       </c>
       <c r="D10" t="n">
-        <v>30.29632881784312</v>
+        <v>1.224219001210804</v>
       </c>
       <c r="E10" t="n">
-        <v>14.83901819649459</v>
+        <v>1.224219001210804</v>
       </c>
       <c r="F10" t="n">
-        <v>14.83901819649459</v>
+        <v>1.224219001210804</v>
       </c>
       <c r="G10" t="n">
-        <v>14.83901819649459</v>
+        <v>1.224219001210804</v>
       </c>
       <c r="H10" t="n">
-        <v>14.83901819649459</v>
+        <v>1.224219001210804</v>
       </c>
       <c r="I10" t="n">
-        <v>14.83901819649459</v>
+        <v>1.224219001210804</v>
       </c>
       <c r="J10" t="n">
-        <v>14.83901819649459</v>
+        <v>1.224219001210804</v>
       </c>
       <c r="K10" t="n">
         <v>1.224219001210804</v>
@@ -4981,31 +4981,31 @@
         <v>61.2109500605402</v>
       </c>
       <c r="Q10" t="n">
-        <v>45.75363943919166</v>
+        <v>61.2109500605402</v>
       </c>
       <c r="R10" t="n">
         <v>45.75363943919166</v>
       </c>
       <c r="S10" t="n">
-        <v>45.75363943919166</v>
+        <v>30.29632881784312</v>
       </c>
       <c r="T10" t="n">
-        <v>45.75363943919166</v>
+        <v>30.29632881784312</v>
       </c>
       <c r="U10" t="n">
-        <v>45.75363943919166</v>
+        <v>30.29632881784312</v>
       </c>
       <c r="V10" t="n">
-        <v>45.75363943919166</v>
+        <v>30.29632881784312</v>
       </c>
       <c r="W10" t="n">
-        <v>45.75363943919166</v>
+        <v>16.68152962255934</v>
       </c>
       <c r="X10" t="n">
-        <v>45.75363943919166</v>
+        <v>1.224219001210804</v>
       </c>
       <c r="Y10" t="n">
-        <v>45.75363943919166</v>
+        <v>1.224219001210804</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2019.126587855614</v>
+        <v>1652.114268285233</v>
       </c>
       <c r="C11" t="n">
-        <v>1698.25585222643</v>
+        <v>1331.243532656049</v>
       </c>
       <c r="D11" t="n">
-        <v>1388.081934930907</v>
+        <v>1021.069615360526</v>
       </c>
       <c r="E11" t="n">
-        <v>1050.38546364389</v>
+        <v>683.3731440735093</v>
       </c>
       <c r="F11" t="n">
-        <v>687.4913401655108</v>
+        <v>320.479020595129</v>
       </c>
       <c r="G11" t="n">
-        <v>320.4790205951291</v>
+        <v>320.479020595129</v>
       </c>
       <c r="H11" t="n">
-        <v>70.66305851127099</v>
+        <v>70.66305851127102</v>
       </c>
       <c r="I11" t="n">
-        <v>70.66305851127099</v>
+        <v>70.66305851127102</v>
       </c>
       <c r="J11" t="n">
-        <v>256.9093312985867</v>
+        <v>424.3149803189397</v>
       </c>
       <c r="K11" t="n">
-        <v>586.7827330871135</v>
+        <v>754.1883821074665</v>
       </c>
       <c r="L11" t="n">
-        <v>1032.921619265232</v>
+        <v>1200.327268285585</v>
       </c>
       <c r="M11" t="n">
-        <v>1801.845006262275</v>
+        <v>1728.412178363265</v>
       </c>
       <c r="N11" t="n">
-        <v>2343.088690659621</v>
+        <v>2269.655862760611</v>
       </c>
       <c r="O11" t="n">
-        <v>2840.834492724646</v>
+        <v>2767.401664825637</v>
       </c>
       <c r="P11" t="n">
-        <v>3231.148018172066</v>
+        <v>3157.715190273057</v>
       </c>
       <c r="Q11" t="n">
-        <v>3476.084474180798</v>
+        <v>3476.0844741808</v>
       </c>
       <c r="R11" t="n">
-        <v>3533.152925563549</v>
+        <v>3533.152925563551</v>
       </c>
       <c r="S11" t="n">
-        <v>3533.152925563549</v>
+        <v>3470.23279746934</v>
       </c>
       <c r="T11" t="n">
-        <v>3533.152925563549</v>
+        <v>3312.208280109073</v>
       </c>
       <c r="U11" t="n">
-        <v>3533.152925563549</v>
+        <v>3106.767052636008</v>
       </c>
       <c r="V11" t="n">
-        <v>3250.181819531206</v>
+        <v>2823.795946603665</v>
       </c>
       <c r="W11" t="n">
-        <v>3025.056174222944</v>
+        <v>2519.119072644779</v>
       </c>
       <c r="X11" t="n">
-        <v>2699.682197273092</v>
+        <v>2332.669877702711</v>
       </c>
       <c r="Y11" t="n">
-        <v>2357.634646608508</v>
+        <v>1990.622327038127</v>
       </c>
     </row>
     <row r="12">
@@ -5106,22 +5106,22 @@
         <v>453.6054191097412</v>
       </c>
       <c r="F12" t="n">
-        <v>307.0708611366261</v>
+        <v>307.0708611366262</v>
       </c>
       <c r="G12" t="n">
-        <v>170.6908263375513</v>
+        <v>170.6908263375514</v>
       </c>
       <c r="H12" t="n">
-        <v>80.02537908512095</v>
+        <v>80.02537908512097</v>
       </c>
       <c r="I12" t="n">
-        <v>70.66305851127099</v>
+        <v>70.66305851127102</v>
       </c>
       <c r="J12" t="n">
-        <v>162.7722157117021</v>
+        <v>162.7722157117022</v>
       </c>
       <c r="K12" t="n">
-        <v>398.3562610228703</v>
+        <v>398.3562610228704</v>
       </c>
       <c r="L12" t="n">
         <v>761.4506239758186</v>
@@ -5133,10 +5133,10 @@
         <v>1673.727763622103</v>
       </c>
       <c r="O12" t="n">
-        <v>2097.126517583587</v>
+        <v>2080.74004404263</v>
       </c>
       <c r="P12" t="n">
-        <v>2404.456689214273</v>
+        <v>2388.070215673316</v>
       </c>
       <c r="Q12" t="n">
         <v>2559.979573628731</v>
@@ -5194,28 +5194,28 @@
         <v>120.3239097120026</v>
       </c>
       <c r="I13" t="n">
-        <v>70.66305851127099</v>
+        <v>70.66305851127102</v>
       </c>
       <c r="J13" t="n">
-        <v>161.9366625641267</v>
+        <v>161.9366625641268</v>
       </c>
       <c r="K13" t="n">
-        <v>411.4419422782597</v>
+        <v>411.4419422782596</v>
       </c>
       <c r="L13" t="n">
-        <v>773.0677298205088</v>
+        <v>773.0677298205087</v>
       </c>
       <c r="M13" t="n">
         <v>1162.178306841744</v>
       </c>
       <c r="N13" t="n">
-        <v>1548.592079587459</v>
+        <v>1548.592079587458</v>
       </c>
       <c r="O13" t="n">
-        <v>1893.089625850991</v>
+        <v>1893.08962585099</v>
       </c>
       <c r="P13" t="n">
-        <v>2171.148937537912</v>
+        <v>2171.148937537911</v>
       </c>
       <c r="Q13" t="n">
         <v>2294.728805631843</v>
@@ -5224,19 +5224,19 @@
         <v>2252.351761785336</v>
       </c>
       <c r="S13" t="n">
-        <v>2108.510236502534</v>
+        <v>2108.510236502533</v>
       </c>
       <c r="T13" t="n">
-        <v>1934.774740652561</v>
+        <v>1934.77474065256</v>
       </c>
       <c r="U13" t="n">
         <v>1693.762880684359</v>
       </c>
       <c r="V13" t="n">
-        <v>1487.1701737897</v>
+        <v>1487.170173789699</v>
       </c>
       <c r="W13" t="n">
-        <v>1245.844785063967</v>
+        <v>1245.844785063966</v>
       </c>
       <c r="X13" t="n">
         <v>1065.947015477177</v>
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2019.126587855614</v>
+        <v>1513.189486277449</v>
       </c>
       <c r="C14" t="n">
-        <v>1698.25585222643</v>
+        <v>1192.318750648265</v>
       </c>
       <c r="D14" t="n">
-        <v>1388.081934930907</v>
+        <v>1025.187811452528</v>
       </c>
       <c r="E14" t="n">
-        <v>1050.38546364389</v>
+        <v>687.4913401655109</v>
       </c>
       <c r="F14" t="n">
-        <v>687.4913401655108</v>
+        <v>687.4913401655109</v>
       </c>
       <c r="G14" t="n">
         <v>320.4790205951291</v>
       </c>
       <c r="H14" t="n">
-        <v>70.66305851127099</v>
+        <v>70.66305851127102</v>
       </c>
       <c r="I14" t="n">
-        <v>70.66305851127099</v>
+        <v>70.66305851127102</v>
       </c>
       <c r="J14" t="n">
-        <v>287.555967464644</v>
+        <v>256.9093312985867</v>
       </c>
       <c r="K14" t="n">
-        <v>617.4293692531708</v>
+        <v>586.7827330871135</v>
       </c>
       <c r="L14" t="n">
-        <v>1063.568255431289</v>
+        <v>1032.921619265232</v>
       </c>
       <c r="M14" t="n">
-        <v>1591.653165508969</v>
+        <v>1561.006529342912</v>
       </c>
       <c r="N14" t="n">
-        <v>2132.896849906315</v>
+        <v>2343.088690659622</v>
       </c>
       <c r="O14" t="n">
-        <v>2630.64265197134</v>
+        <v>2840.834492724648</v>
       </c>
       <c r="P14" t="n">
-        <v>3020.95617741876</v>
+        <v>3231.148018172068</v>
       </c>
       <c r="Q14" t="n">
-        <v>3476.084474180798</v>
+        <v>3476.0844741808</v>
       </c>
       <c r="R14" t="n">
-        <v>3533.152925563549</v>
+        <v>3533.152925563551</v>
       </c>
       <c r="S14" t="n">
-        <v>3533.152925563549</v>
+        <v>3470.232797469341</v>
       </c>
       <c r="T14" t="n">
-        <v>3533.152925563549</v>
+        <v>3312.208280109073</v>
       </c>
       <c r="U14" t="n">
-        <v>3533.152925563549</v>
+        <v>3106.767052636008</v>
       </c>
       <c r="V14" t="n">
-        <v>3329.733048181831</v>
+        <v>2823.795946603665</v>
       </c>
       <c r="W14" t="n">
-        <v>3025.056174222945</v>
+        <v>2519.119072644779</v>
       </c>
       <c r="X14" t="n">
-        <v>2699.682197273092</v>
+        <v>2193.745095694926</v>
       </c>
       <c r="Y14" t="n">
-        <v>2357.634646608508</v>
+        <v>1851.697545030343</v>
       </c>
     </row>
     <row r="15">
@@ -5343,22 +5343,22 @@
         <v>453.6054191097412</v>
       </c>
       <c r="F15" t="n">
-        <v>307.0708611366261</v>
+        <v>307.0708611366262</v>
       </c>
       <c r="G15" t="n">
-        <v>170.6908263375513</v>
+        <v>170.6908263375514</v>
       </c>
       <c r="H15" t="n">
-        <v>80.02537908512095</v>
+        <v>80.02537908512097</v>
       </c>
       <c r="I15" t="n">
-        <v>70.66305851127099</v>
+        <v>70.66305851127102</v>
       </c>
       <c r="J15" t="n">
-        <v>162.7722157117021</v>
+        <v>162.7722157117022</v>
       </c>
       <c r="K15" t="n">
-        <v>398.3562610228703</v>
+        <v>398.3562610228704</v>
       </c>
       <c r="L15" t="n">
         <v>777.8370975167751</v>
@@ -5413,31 +5413,31 @@
         <v>759.6895341258628</v>
       </c>
       <c r="C16" t="n">
-        <v>638.8451325091836</v>
+        <v>638.8451325091835</v>
       </c>
       <c r="D16" t="n">
-        <v>536.8202744080755</v>
+        <v>536.8202744080754</v>
       </c>
       <c r="E16" t="n">
-        <v>436.9989621369101</v>
+        <v>436.99896213691</v>
       </c>
       <c r="F16" t="n">
-        <v>338.2007959502274</v>
+        <v>338.2007959502272</v>
       </c>
       <c r="G16" t="n">
-        <v>218.5755432098338</v>
+        <v>218.5755432098336</v>
       </c>
       <c r="H16" t="n">
-        <v>120.3239097120032</v>
+        <v>120.3239097120027</v>
       </c>
       <c r="I16" t="n">
-        <v>70.66305851127099</v>
+        <v>70.66305851127102</v>
       </c>
       <c r="J16" t="n">
-        <v>161.9366625641269</v>
+        <v>161.9366625641267</v>
       </c>
       <c r="K16" t="n">
-        <v>411.4419422782598</v>
+        <v>411.4419422782596</v>
       </c>
       <c r="L16" t="n">
         <v>773.0677298205089</v>
@@ -5455,25 +5455,25 @@
         <v>2171.148937537912</v>
       </c>
       <c r="Q16" t="n">
-        <v>2294.728805631844</v>
+        <v>2294.728805631843</v>
       </c>
       <c r="R16" t="n">
         <v>2252.351761785337</v>
       </c>
       <c r="S16" t="n">
-        <v>2108.510236502535</v>
+        <v>2108.510236502534</v>
       </c>
       <c r="T16" t="n">
-        <v>1934.774740652562</v>
+        <v>1934.774740652561</v>
       </c>
       <c r="U16" t="n">
         <v>1693.76288068436</v>
       </c>
       <c r="V16" t="n">
-        <v>1487.170173789701</v>
+        <v>1487.1701737897</v>
       </c>
       <c r="W16" t="n">
-        <v>1245.844785063968</v>
+        <v>1245.844785063967</v>
       </c>
       <c r="X16" t="n">
         <v>1065.947015477177</v>
@@ -5489,55 +5489,55 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2029.451834826598</v>
+        <v>2029.451834826597</v>
       </c>
       <c r="C17" t="n">
-        <v>1708.581099197414</v>
+        <v>1708.581099197413</v>
       </c>
       <c r="D17" t="n">
         <v>1398.407181901891</v>
       </c>
       <c r="E17" t="n">
-        <v>1060.710710614875</v>
+        <v>1060.710710614874</v>
       </c>
       <c r="F17" t="n">
-        <v>697.8165871364948</v>
+        <v>697.8165871364945</v>
       </c>
       <c r="G17" t="n">
-        <v>330.8042675661121</v>
+        <v>330.8042675661122</v>
       </c>
       <c r="H17" t="n">
-        <v>80.98830548225398</v>
+        <v>80.98830548225401</v>
       </c>
       <c r="I17" t="n">
-        <v>80.98830548225398</v>
+        <v>80.98830548225401</v>
       </c>
       <c r="J17" t="n">
         <v>434.6402272899227</v>
       </c>
       <c r="K17" t="n">
-        <v>764.5136290784494</v>
+        <v>1085.417587523903</v>
       </c>
       <c r="L17" t="n">
-        <v>1210.652515256568</v>
+        <v>1531.556473702021</v>
       </c>
       <c r="M17" t="n">
-        <v>2183.755823492152</v>
+        <v>2318.107354811425</v>
       </c>
       <c r="N17" t="n">
-        <v>2724.999507889498</v>
+        <v>2859.351039208771</v>
       </c>
       <c r="O17" t="n">
-        <v>3292.037585599543</v>
+        <v>3357.096841273797</v>
       </c>
       <c r="P17" t="n">
-        <v>3682.351111046963</v>
+        <v>3747.410366721217</v>
       </c>
       <c r="Q17" t="n">
-        <v>3927.287567055695</v>
+        <v>3992.346822729949</v>
       </c>
       <c r="R17" t="n">
-        <v>4049.415274112699</v>
+        <v>4049.4152741127</v>
       </c>
       <c r="S17" t="n">
         <v>3986.49514601849</v>
@@ -5555,10 +5555,10 @@
         <v>3035.381421193928</v>
       </c>
       <c r="X17" t="n">
-        <v>2710.007444244076</v>
+        <v>2710.007444244075</v>
       </c>
       <c r="Y17" t="n">
-        <v>2367.959893579492</v>
+        <v>2367.959893579491</v>
       </c>
     </row>
     <row r="18">
@@ -5586,25 +5586,25 @@
         <v>181.0160733085343</v>
       </c>
       <c r="H18" t="n">
-        <v>90.35062605610393</v>
+        <v>90.35062605610396</v>
       </c>
       <c r="I18" t="n">
-        <v>80.98830548225398</v>
+        <v>80.98830548225401</v>
       </c>
       <c r="J18" t="n">
-        <v>173.0974626826851</v>
+        <v>189.4839362236414</v>
       </c>
       <c r="K18" t="n">
-        <v>408.6815079938534</v>
+        <v>425.0679815348096</v>
       </c>
       <c r="L18" t="n">
-        <v>771.7758709468017</v>
+        <v>788.1623444877579</v>
       </c>
       <c r="M18" t="n">
-        <v>1214.846734630468</v>
+        <v>1231.233208171424</v>
       </c>
       <c r="N18" t="n">
-        <v>1684.053010593086</v>
+        <v>1700.439484134042</v>
       </c>
       <c r="O18" t="n">
         <v>2107.45176455457</v>
@@ -5647,28 +5647,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>770.0147810968454</v>
+        <v>770.0147810968456</v>
       </c>
       <c r="C19" t="n">
-        <v>649.170379480166</v>
+        <v>649.1703794801663</v>
       </c>
       <c r="D19" t="n">
-        <v>547.145521379058</v>
+        <v>547.1455213790581</v>
       </c>
       <c r="E19" t="n">
         <v>447.3242091078926</v>
       </c>
       <c r="F19" t="n">
-        <v>348.5260429212098</v>
+        <v>348.5260429212099</v>
       </c>
       <c r="G19" t="n">
         <v>228.9007901808162</v>
       </c>
       <c r="H19" t="n">
-        <v>130.6491566829856</v>
+        <v>130.6491566829857</v>
       </c>
       <c r="I19" t="n">
-        <v>80.98830548225398</v>
+        <v>80.98830548225401</v>
       </c>
       <c r="J19" t="n">
         <v>172.2619095351097</v>
@@ -5683,25 +5683,25 @@
         <v>1172.503553812727</v>
       </c>
       <c r="N19" t="n">
-        <v>1558.917326558441</v>
+        <v>1558.917326558442</v>
       </c>
       <c r="O19" t="n">
         <v>1903.414872821973</v>
       </c>
       <c r="P19" t="n">
-        <v>2181.474184508894</v>
+        <v>2181.474184508895</v>
       </c>
       <c r="Q19" t="n">
-        <v>2305.054052602825</v>
+        <v>2305.054052602826</v>
       </c>
       <c r="R19" t="n">
-        <v>2262.677008756319</v>
+        <v>2262.67700875632</v>
       </c>
       <c r="S19" t="n">
-        <v>2118.835483473516</v>
+        <v>2118.835483473517</v>
       </c>
       <c r="T19" t="n">
-        <v>1945.099987623543</v>
+        <v>1945.099987623544</v>
       </c>
       <c r="U19" t="n">
         <v>1704.088127655342</v>
@@ -5716,7 +5716,7 @@
         <v>1076.27226244816</v>
       </c>
       <c r="Y19" t="n">
-        <v>903.5714646158574</v>
+        <v>903.5714646158576</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5726,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2029.451834826597</v>
+        <v>2029.451834826598</v>
       </c>
       <c r="C20" t="n">
-        <v>1708.581099197413</v>
+        <v>1708.581099197414</v>
       </c>
       <c r="D20" t="n">
-        <v>1398.40718190189</v>
+        <v>1398.407181901891</v>
       </c>
       <c r="E20" t="n">
         <v>1060.710710614874</v>
       </c>
       <c r="F20" t="n">
-        <v>697.8165871364936</v>
+        <v>697.8165871364943</v>
       </c>
       <c r="G20" t="n">
-        <v>330.8042675661121</v>
+        <v>330.8042675661122</v>
       </c>
       <c r="H20" t="n">
-        <v>80.98830548225398</v>
+        <v>80.98830548225401</v>
       </c>
       <c r="I20" t="n">
-        <v>80.98830548225398</v>
+        <v>80.98830548225401</v>
       </c>
       <c r="J20" t="n">
-        <v>434.6402272899227</v>
+        <v>267.2345782695697</v>
       </c>
       <c r="K20" t="n">
-        <v>764.5136290784494</v>
+        <v>648.3106580157421</v>
       </c>
       <c r="L20" t="n">
-        <v>1210.652515256568</v>
+        <v>1094.44954419386</v>
       </c>
       <c r="M20" t="n">
-        <v>1738.737425334248</v>
+        <v>1622.53445427154</v>
       </c>
       <c r="N20" t="n">
-        <v>2279.981109731593</v>
+        <v>2163.778138668886</v>
       </c>
       <c r="O20" t="n">
-        <v>2777.726911796619</v>
+        <v>3038.51612018403</v>
       </c>
       <c r="P20" t="n">
-        <v>3472.159270293657</v>
+        <v>3747.410366721218</v>
       </c>
       <c r="Q20" t="n">
-        <v>3927.287567055695</v>
+        <v>3992.34682272995</v>
       </c>
       <c r="R20" t="n">
-        <v>4049.415274112699</v>
+        <v>4049.4152741127</v>
       </c>
       <c r="S20" t="n">
-        <v>3986.495146018488</v>
+        <v>3986.495146018491</v>
       </c>
       <c r="T20" t="n">
-        <v>3828.470628658221</v>
+        <v>3828.470628658223</v>
       </c>
       <c r="U20" t="n">
-        <v>3623.029401185157</v>
+        <v>3623.029401185158</v>
       </c>
       <c r="V20" t="n">
-        <v>3340.058295152814</v>
+        <v>3340.058295152815</v>
       </c>
       <c r="W20" t="n">
-        <v>3035.381421193927</v>
+        <v>3035.381421193929</v>
       </c>
       <c r="X20" t="n">
-        <v>2710.007444244075</v>
+        <v>2710.007444244076</v>
       </c>
       <c r="Y20" t="n">
-        <v>2367.959893579491</v>
+        <v>2367.959893579492</v>
       </c>
     </row>
     <row r="21">
@@ -5823,10 +5823,10 @@
         <v>181.0160733085343</v>
       </c>
       <c r="H21" t="n">
-        <v>90.35062605610393</v>
+        <v>90.35062605610396</v>
       </c>
       <c r="I21" t="n">
-        <v>80.98830548225398</v>
+        <v>80.98830548225401</v>
       </c>
       <c r="J21" t="n">
         <v>173.0974626826851</v>
@@ -5838,16 +5838,16 @@
         <v>771.7758709468017</v>
       </c>
       <c r="M21" t="n">
-        <v>1214.846734630468</v>
+        <v>1231.233208171424</v>
       </c>
       <c r="N21" t="n">
-        <v>1684.053010593086</v>
+        <v>1700.439484134042</v>
       </c>
       <c r="O21" t="n">
-        <v>2091.065291013614</v>
+        <v>2107.45176455457</v>
       </c>
       <c r="P21" t="n">
-        <v>2398.3954626443</v>
+        <v>2414.781936185256</v>
       </c>
       <c r="Q21" t="n">
         <v>2570.304820599713</v>
@@ -5887,43 +5887,43 @@
         <v>770.0147810968451</v>
       </c>
       <c r="C22" t="n">
-        <v>649.1703794801659</v>
+        <v>649.1703794801658</v>
       </c>
       <c r="D22" t="n">
-        <v>547.1455213790579</v>
+        <v>547.1455213790578</v>
       </c>
       <c r="E22" t="n">
-        <v>447.3242091078924</v>
+        <v>447.3242091078923</v>
       </c>
       <c r="F22" t="n">
-        <v>348.5260429212098</v>
+        <v>348.5260429212095</v>
       </c>
       <c r="G22" t="n">
-        <v>228.9007901808161</v>
+        <v>228.9007901808158</v>
       </c>
       <c r="H22" t="n">
-        <v>130.6491566829856</v>
+        <v>130.6491566829853</v>
       </c>
       <c r="I22" t="n">
-        <v>80.98830548225398</v>
+        <v>80.98830548225401</v>
       </c>
       <c r="J22" t="n">
-        <v>172.2619095351098</v>
+        <v>172.2619095351097</v>
       </c>
       <c r="K22" t="n">
         <v>421.7671892492427</v>
       </c>
       <c r="L22" t="n">
-        <v>783.3929767914919</v>
+        <v>783.3929767914917</v>
       </c>
       <c r="M22" t="n">
-        <v>1172.503553812726</v>
+        <v>1172.503553812727</v>
       </c>
       <c r="N22" t="n">
-        <v>1558.91732655844</v>
+        <v>1558.917326558441</v>
       </c>
       <c r="O22" t="n">
-        <v>1903.414872821972</v>
+        <v>1903.414872821973</v>
       </c>
       <c r="P22" t="n">
         <v>2181.474184508894</v>
@@ -5941,7 +5941,7 @@
         <v>1945.099987623543</v>
       </c>
       <c r="U22" t="n">
-        <v>1704.088127655342</v>
+        <v>1704.088127655341</v>
       </c>
       <c r="V22" t="n">
         <v>1497.495420760682</v>
@@ -5963,76 +5963,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2029.451834826596</v>
+        <v>2029.451834826598</v>
       </c>
       <c r="C23" t="n">
-        <v>1708.581099197412</v>
+        <v>1708.581099197414</v>
       </c>
       <c r="D23" t="n">
-        <v>1398.40718190189</v>
+        <v>1398.407181901891</v>
       </c>
       <c r="E23" t="n">
-        <v>1060.710710614873</v>
+        <v>1060.710710614874</v>
       </c>
       <c r="F23" t="n">
-        <v>697.8165871364931</v>
+        <v>697.8165871364947</v>
       </c>
       <c r="G23" t="n">
-        <v>330.8042675661121</v>
+        <v>330.8042675661122</v>
       </c>
       <c r="H23" t="n">
-        <v>80.98830548225398</v>
+        <v>80.98830548225401</v>
       </c>
       <c r="I23" t="n">
-        <v>80.98830548225398</v>
+        <v>80.98830548225401</v>
       </c>
       <c r="J23" t="n">
-        <v>434.6402272899227</v>
+        <v>267.2345782695697</v>
       </c>
       <c r="K23" t="n">
-        <v>764.5136290784494</v>
+        <v>597.1079800580965</v>
       </c>
       <c r="L23" t="n">
-        <v>1210.652515256568</v>
+        <v>1043.246866236215</v>
       </c>
       <c r="M23" t="n">
-        <v>1738.737425334248</v>
+        <v>1571.331776313895</v>
       </c>
       <c r="N23" t="n">
-        <v>2279.981109731593</v>
+        <v>2482.358859758654</v>
       </c>
       <c r="O23" t="n">
-        <v>2777.726911796619</v>
+        <v>3357.096841273798</v>
       </c>
       <c r="P23" t="n">
-        <v>3472.159270293657</v>
+        <v>3747.410366721218</v>
       </c>
       <c r="Q23" t="n">
-        <v>3927.287567055695</v>
+        <v>3992.34682272995</v>
       </c>
       <c r="R23" t="n">
-        <v>4049.415274112699</v>
+        <v>4049.4152741127</v>
       </c>
       <c r="S23" t="n">
-        <v>3986.495146018489</v>
+        <v>3986.495146018491</v>
       </c>
       <c r="T23" t="n">
-        <v>3828.47062865822</v>
+        <v>3828.470628658223</v>
       </c>
       <c r="U23" t="n">
-        <v>3623.029401185157</v>
+        <v>3623.029401185158</v>
       </c>
       <c r="V23" t="n">
-        <v>3340.058295152814</v>
+        <v>3340.058295152815</v>
       </c>
       <c r="W23" t="n">
-        <v>3035.381421193927</v>
+        <v>3035.381421193929</v>
       </c>
       <c r="X23" t="n">
-        <v>2710.007444244075</v>
+        <v>2710.007444244076</v>
       </c>
       <c r="Y23" t="n">
-        <v>2367.959893579491</v>
+        <v>2367.959893579492</v>
       </c>
     </row>
     <row r="24">
@@ -6060,10 +6060,10 @@
         <v>181.0160733085343</v>
       </c>
       <c r="H24" t="n">
-        <v>90.35062605610393</v>
+        <v>90.35062605610396</v>
       </c>
       <c r="I24" t="n">
-        <v>80.98830548225398</v>
+        <v>80.98830548225401</v>
       </c>
       <c r="J24" t="n">
         <v>173.0974626826851</v>
@@ -6084,7 +6084,7 @@
         <v>2091.065291013614</v>
       </c>
       <c r="P24" t="n">
-        <v>2414.781936185256</v>
+        <v>2398.3954626443</v>
       </c>
       <c r="Q24" t="n">
         <v>2570.304820599713</v>
@@ -6121,43 +6121,43 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>770.0147810968451</v>
+        <v>770.0147810968444</v>
       </c>
       <c r="C25" t="n">
-        <v>649.1703794801659</v>
+        <v>649.1703794801651</v>
       </c>
       <c r="D25" t="n">
-        <v>547.1455213790579</v>
+        <v>547.1455213790571</v>
       </c>
       <c r="E25" t="n">
-        <v>447.3242091078924</v>
+        <v>447.3242091078916</v>
       </c>
       <c r="F25" t="n">
-        <v>348.5260429212098</v>
+        <v>348.5260429212088</v>
       </c>
       <c r="G25" t="n">
-        <v>228.9007901808161</v>
+        <v>228.9007901808152</v>
       </c>
       <c r="H25" t="n">
-        <v>130.6491566829856</v>
+        <v>130.6491566829846</v>
       </c>
       <c r="I25" t="n">
-        <v>80.98830548225398</v>
+        <v>80.98830548225401</v>
       </c>
       <c r="J25" t="n">
-        <v>172.2619095351098</v>
+        <v>172.2619095351097</v>
       </c>
       <c r="K25" t="n">
-        <v>421.7671892492417</v>
+        <v>421.7671892492426</v>
       </c>
       <c r="L25" t="n">
-        <v>783.3929767914908</v>
+        <v>783.392976791491</v>
       </c>
       <c r="M25" t="n">
         <v>1172.503553812726</v>
       </c>
       <c r="N25" t="n">
-        <v>1558.91732655844</v>
+        <v>1558.917326558441</v>
       </c>
       <c r="O25" t="n">
         <v>1903.414872821972</v>
@@ -6178,7 +6178,7 @@
         <v>1945.099987623543</v>
       </c>
       <c r="U25" t="n">
-        <v>1704.088127655342</v>
+        <v>1704.088127655341</v>
       </c>
       <c r="V25" t="n">
         <v>1497.495420760682</v>
@@ -6187,10 +6187,10 @@
         <v>1256.170032034949</v>
       </c>
       <c r="X25" t="n">
-        <v>1076.27226244816</v>
+        <v>1076.272262448159</v>
       </c>
       <c r="Y25" t="n">
-        <v>903.5714646158572</v>
+        <v>903.5714646158565</v>
       </c>
     </row>
     <row r="26">
@@ -6224,28 +6224,28 @@
         <v>95.61079633440079</v>
       </c>
       <c r="J26" t="n">
-        <v>449.2627181420695</v>
+        <v>281.8570691217164</v>
       </c>
       <c r="K26" t="n">
-        <v>1100.040078376049</v>
+        <v>611.7304709102432</v>
       </c>
       <c r="L26" t="n">
-        <v>1927.315169823759</v>
+        <v>1057.869357088361</v>
       </c>
       <c r="M26" t="n">
-        <v>2455.400079901439</v>
+        <v>2030.972665323946</v>
       </c>
       <c r="N26" t="n">
-        <v>2996.643764298785</v>
+        <v>2684.71084052292</v>
       </c>
       <c r="O26" t="n">
-        <v>3494.389566363811</v>
+        <v>3559.448822038063</v>
       </c>
       <c r="P26" t="n">
-        <v>4203.283812900999</v>
+        <v>4268.343068575251</v>
       </c>
       <c r="Q26" t="n">
-        <v>4658.412109663036</v>
+        <v>4723.471365337288</v>
       </c>
       <c r="R26" t="n">
         <v>4780.539816720039</v>
@@ -6306,22 +6306,22 @@
         <v>187.7199535348319</v>
       </c>
       <c r="K27" t="n">
-        <v>439.6904723869563</v>
+        <v>423.3039988460001</v>
       </c>
       <c r="L27" t="n">
-        <v>802.7848353399046</v>
+        <v>786.3983617989484</v>
       </c>
       <c r="M27" t="n">
-        <v>1245.855699023571</v>
+        <v>1229.469225482615</v>
       </c>
       <c r="N27" t="n">
-        <v>1715.061974986189</v>
+        <v>1698.675501445233</v>
       </c>
       <c r="O27" t="n">
-        <v>2122.074255406716</v>
+        <v>2105.68778186576</v>
       </c>
       <c r="P27" t="n">
-        <v>2429.404427037402</v>
+        <v>2413.017953496446</v>
       </c>
       <c r="Q27" t="n">
         <v>2584.92731145186</v>
@@ -6358,25 +6358,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>263.3278303860221</v>
+        <v>384.371216971127</v>
       </c>
       <c r="C28" t="n">
-        <v>263.3278303860221</v>
+        <v>215.43503404322</v>
       </c>
       <c r="D28" t="n">
-        <v>263.3278303860221</v>
+        <v>215.43503404322</v>
       </c>
       <c r="E28" t="n">
-        <v>263.3278303860221</v>
+        <v>215.43503404322</v>
       </c>
       <c r="F28" t="n">
-        <v>263.3278303860221</v>
+        <v>193.3634288463601</v>
       </c>
       <c r="G28" t="n">
-        <v>95.61079633440079</v>
+        <v>193.3634288463601</v>
       </c>
       <c r="H28" t="n">
-        <v>95.61079633440079</v>
+        <v>193.3634288463601</v>
       </c>
       <c r="I28" t="n">
         <v>95.61079633440079</v>
@@ -6385,19 +6385,19 @@
         <v>139.7496455241223</v>
       </c>
       <c r="K28" t="n">
-        <v>342.120170375121</v>
+        <v>342.1201703751209</v>
       </c>
       <c r="L28" t="n">
         <v>656.6112030542358</v>
       </c>
       <c r="M28" t="n">
-        <v>998.5870252123364</v>
+        <v>998.5870252123368</v>
       </c>
       <c r="N28" t="n">
         <v>1337.866043094917</v>
       </c>
       <c r="O28" t="n">
-        <v>1635.228834495314</v>
+        <v>1635.228834495315</v>
       </c>
       <c r="P28" t="n">
         <v>1866.153391319102</v>
@@ -6412,22 +6412,22 @@
         <v>1660.196372798135</v>
       </c>
       <c r="T28" t="n">
-        <v>1660.196372798135</v>
+        <v>1438.369095636934</v>
       </c>
       <c r="U28" t="n">
-        <v>1437.860083500657</v>
+        <v>1149.265454357505</v>
       </c>
       <c r="V28" t="n">
-        <v>1183.17559529477</v>
+        <v>894.5809661516178</v>
       </c>
       <c r="W28" t="n">
-        <v>893.7584252578093</v>
+        <v>605.1637961146572</v>
       </c>
       <c r="X28" t="n">
-        <v>665.768874359792</v>
+        <v>605.1637961146572</v>
       </c>
       <c r="Y28" t="n">
-        <v>444.9762952162619</v>
+        <v>384.371216971127</v>
       </c>
     </row>
     <row r="29">
@@ -6437,19 +6437,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2375.842126944115</v>
+        <v>2375.842126944116</v>
       </c>
       <c r="C29" t="n">
         <v>2006.879610003704</v>
       </c>
       <c r="D29" t="n">
-        <v>1648.613911396953</v>
+        <v>1648.613911396954</v>
       </c>
       <c r="E29" t="n">
-        <v>1262.825658798709</v>
+        <v>1262.82565879871</v>
       </c>
       <c r="F29" t="n">
-        <v>851.8397540091023</v>
+        <v>851.839754009102</v>
       </c>
       <c r="G29" t="n">
         <v>436.7356531274926</v>
@@ -6461,19 +6461,19 @@
         <v>95.61079633440079</v>
       </c>
       <c r="J29" t="n">
-        <v>449.2627181420695</v>
+        <v>281.8570691217164</v>
       </c>
       <c r="K29" t="n">
-        <v>779.1361199305964</v>
+        <v>611.7304709102432</v>
       </c>
       <c r="L29" t="n">
-        <v>1225.275006108714</v>
+        <v>1117.349535205777</v>
       </c>
       <c r="M29" t="n">
-        <v>2198.378314344299</v>
+        <v>1645.434445283457</v>
       </c>
       <c r="N29" t="n">
-        <v>2739.621998741644</v>
+        <v>2619.651584848667</v>
       </c>
       <c r="O29" t="n">
         <v>3494.389566363811</v>
@@ -6491,13 +6491,13 @@
         <v>4669.527907314602</v>
       </c>
       <c r="T29" t="n">
-        <v>4463.411608643106</v>
+        <v>4463.411608643107</v>
       </c>
       <c r="U29" t="n">
-        <v>4209.878599858814</v>
+        <v>4209.878599858815</v>
       </c>
       <c r="V29" t="n">
-        <v>3878.815712515243</v>
+        <v>3878.815712515244</v>
       </c>
       <c r="W29" t="n">
         <v>3526.047057245129</v>
@@ -6540,22 +6540,22 @@
         <v>95.61079633440079</v>
       </c>
       <c r="J30" t="n">
-        <v>204.1064270757881</v>
+        <v>187.7199535348319</v>
       </c>
       <c r="K30" t="n">
-        <v>439.6904723869563</v>
+        <v>423.3039988460001</v>
       </c>
       <c r="L30" t="n">
-        <v>802.7848353399046</v>
+        <v>786.3983617989484</v>
       </c>
       <c r="M30" t="n">
-        <v>1245.855699023571</v>
+        <v>1229.469225482615</v>
       </c>
       <c r="N30" t="n">
-        <v>1715.061974986189</v>
+        <v>1698.675501445233</v>
       </c>
       <c r="O30" t="n">
-        <v>2122.074255406716</v>
+        <v>2105.68778186576</v>
       </c>
       <c r="P30" t="n">
         <v>2429.404427037402</v>
@@ -6595,19 +6595,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>467.6430703743738</v>
+        <v>264.5469792623077</v>
       </c>
       <c r="C31" t="n">
-        <v>413.4444697983578</v>
+        <v>95.61079633440079</v>
       </c>
       <c r="D31" t="n">
-        <v>263.3278303860221</v>
+        <v>95.61079633440079</v>
       </c>
       <c r="E31" t="n">
-        <v>263.3278303860221</v>
+        <v>95.61079633440079</v>
       </c>
       <c r="F31" t="n">
-        <v>263.3278303860221</v>
+        <v>95.61079633440079</v>
       </c>
       <c r="G31" t="n">
         <v>95.61079633440079</v>
@@ -6622,10 +6622,10 @@
         <v>139.7496455241223</v>
       </c>
       <c r="K31" t="n">
-        <v>342.120170375121</v>
+        <v>342.1201703751211</v>
       </c>
       <c r="L31" t="n">
-        <v>656.6112030542358</v>
+        <v>656.6112030542359</v>
       </c>
       <c r="M31" t="n">
         <v>998.5870252123368</v>
@@ -6643,28 +6643,28 @@
         <v>1942.598504549899</v>
       </c>
       <c r="R31" t="n">
-        <v>1942.598504549899</v>
+        <v>1852.129679392165</v>
       </c>
       <c r="S31" t="n">
-        <v>1750.665197955869</v>
+        <v>1660.196372798135</v>
       </c>
       <c r="T31" t="n">
-        <v>1528.837920794668</v>
+        <v>1438.369095636934</v>
       </c>
       <c r="U31" t="n">
-        <v>1239.734279515239</v>
+        <v>1149.265454357505</v>
       </c>
       <c r="V31" t="n">
-        <v>985.0497913093517</v>
+        <v>894.5809661516178</v>
       </c>
       <c r="W31" t="n">
-        <v>695.6326212723911</v>
+        <v>605.1637961146571</v>
       </c>
       <c r="X31" t="n">
-        <v>467.6430703743738</v>
+        <v>446.1954440925474</v>
       </c>
       <c r="Y31" t="n">
-        <v>467.6430703743738</v>
+        <v>446.1954440925474</v>
       </c>
     </row>
     <row r="32">
@@ -6698,28 +6698,28 @@
         <v>94.93666099252691</v>
       </c>
       <c r="J32" t="n">
-        <v>448.5885828001956</v>
+        <v>281.1829337798426</v>
       </c>
       <c r="K32" t="n">
-        <v>1099.044169821253</v>
+        <v>931.9602940138225</v>
       </c>
       <c r="L32" t="n">
-        <v>1958.667658404317</v>
+        <v>1378.099180191941</v>
       </c>
       <c r="M32" t="n">
-        <v>2486.752568481998</v>
+        <v>1988.719857639881</v>
       </c>
       <c r="N32" t="n">
-        <v>3027.996252879344</v>
+        <v>2962.936997205091</v>
       </c>
       <c r="O32" t="n">
-        <v>3525.742054944369</v>
+        <v>3460.682799270117</v>
       </c>
       <c r="P32" t="n">
-        <v>4234.636301481557</v>
+        <v>4169.577045807305</v>
       </c>
       <c r="Q32" t="n">
-        <v>4689.764598243594</v>
+        <v>4624.705342569342</v>
       </c>
       <c r="R32" t="n">
         <v>4746.833049626345</v>
@@ -6832,25 +6832,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>793.7685981092875</v>
+        <v>242.8511249547413</v>
       </c>
       <c r="C34" t="n">
-        <v>793.7685981092875</v>
+        <v>242.8511249547413</v>
       </c>
       <c r="D34" t="n">
-        <v>645.8541341470733</v>
+        <v>94.93666099252691</v>
       </c>
       <c r="E34" t="n">
-        <v>500.1432160148015</v>
+        <v>94.93666099252691</v>
       </c>
       <c r="F34" t="n">
-        <v>500.1432160148015</v>
+        <v>94.93666099252691</v>
       </c>
       <c r="G34" t="n">
-        <v>334.6283574133016</v>
+        <v>94.93666099252691</v>
       </c>
       <c r="H34" t="n">
-        <v>190.4871180543648</v>
+        <v>94.93666099252691</v>
       </c>
       <c r="I34" t="n">
         <v>94.93666099252691</v>
@@ -6874,34 +6874,34 @@
         <v>1647.504812105424</v>
       </c>
       <c r="P34" t="n">
-        <v>1880.587721087876</v>
+        <v>1880.587721087875</v>
       </c>
       <c r="Q34" t="n">
         <v>1959.191186477336</v>
       </c>
       <c r="R34" t="n">
-        <v>1959.191186477336</v>
+        <v>1870.924536769724</v>
       </c>
       <c r="S34" t="n">
-        <v>1959.191186477336</v>
+        <v>1681.193405625815</v>
       </c>
       <c r="T34" t="n">
-        <v>1739.566084766258</v>
+        <v>1461.568303914735</v>
       </c>
       <c r="U34" t="n">
-        <v>1452.664618936949</v>
+        <v>1174.666838085427</v>
       </c>
       <c r="V34" t="n">
-        <v>1200.182306181184</v>
+        <v>935.299784369595</v>
       </c>
       <c r="W34" t="n">
-        <v>912.9673115943444</v>
+        <v>648.0847897827557</v>
       </c>
       <c r="X34" t="n">
-        <v>793.7685981092875</v>
+        <v>422.2974143348596</v>
       </c>
       <c r="Y34" t="n">
-        <v>793.7685981092875</v>
+        <v>422.2974143348596</v>
       </c>
     </row>
     <row r="35">
@@ -6935,28 +6935,28 @@
         <v>80.98830548225398</v>
       </c>
       <c r="J35" t="n">
-        <v>434.6402272899227</v>
+        <v>267.2345782695697</v>
       </c>
       <c r="K35" t="n">
-        <v>764.5136290784494</v>
+        <v>918.0119385035496</v>
       </c>
       <c r="L35" t="n">
-        <v>1210.652515256568</v>
+        <v>1364.150824681668</v>
       </c>
       <c r="M35" t="n">
-        <v>2183.755823492152</v>
+        <v>2318.107354811425</v>
       </c>
       <c r="N35" t="n">
-        <v>2724.999507889498</v>
+        <v>2859.351039208771</v>
       </c>
       <c r="O35" t="n">
-        <v>3222.745309954524</v>
+        <v>3357.096841273796</v>
       </c>
       <c r="P35" t="n">
-        <v>3613.058835401944</v>
+        <v>3747.410366721216</v>
       </c>
       <c r="Q35" t="n">
-        <v>3927.287567055695</v>
+        <v>3992.346822729948</v>
       </c>
       <c r="R35" t="n">
         <v>4049.415274112699</v>
@@ -6965,7 +6965,7 @@
         <v>3986.495146018489</v>
       </c>
       <c r="T35" t="n">
-        <v>3828.470628658221</v>
+        <v>3828.470628658222</v>
       </c>
       <c r="U35" t="n">
         <v>3623.029401185157</v>
@@ -7017,22 +7017,22 @@
         <v>173.0974626826851</v>
       </c>
       <c r="K36" t="n">
-        <v>425.0679815348096</v>
+        <v>408.6815079938534</v>
       </c>
       <c r="L36" t="n">
-        <v>788.1623444877579</v>
+        <v>771.7758709468017</v>
       </c>
       <c r="M36" t="n">
-        <v>1231.233208171424</v>
+        <v>1214.846734630468</v>
       </c>
       <c r="N36" t="n">
-        <v>1700.439484134042</v>
+        <v>1684.053010593086</v>
       </c>
       <c r="O36" t="n">
-        <v>2107.45176455457</v>
+        <v>2091.065291013614</v>
       </c>
       <c r="P36" t="n">
-        <v>2414.781936185256</v>
+        <v>2398.3954626443</v>
       </c>
       <c r="Q36" t="n">
         <v>2570.304820599713</v>
@@ -7072,19 +7072,19 @@
         <v>770.0147810968449</v>
       </c>
       <c r="C37" t="n">
-        <v>649.1703794801657</v>
+        <v>649.1703794801656</v>
       </c>
       <c r="D37" t="n">
-        <v>547.1455213790576</v>
+        <v>547.1455213790575</v>
       </c>
       <c r="E37" t="n">
-        <v>447.3242091078922</v>
+        <v>447.324209107892</v>
       </c>
       <c r="F37" t="n">
-        <v>348.5260429212095</v>
+        <v>348.5260429212093</v>
       </c>
       <c r="G37" t="n">
-        <v>228.9007901808159</v>
+        <v>228.9007901808156</v>
       </c>
       <c r="H37" t="n">
         <v>130.6491566829856</v>
@@ -7099,7 +7099,7 @@
         <v>421.7671892492426</v>
       </c>
       <c r="L37" t="n">
-        <v>783.3929767914917</v>
+        <v>783.3929767914915</v>
       </c>
       <c r="M37" t="n">
         <v>1172.503553812727</v>
@@ -7117,16 +7117,16 @@
         <v>2305.054052602826</v>
       </c>
       <c r="R37" t="n">
-        <v>2262.67700875632</v>
+        <v>2262.677008756319</v>
       </c>
       <c r="S37" t="n">
-        <v>2118.835483473517</v>
+        <v>2118.835483473516</v>
       </c>
       <c r="T37" t="n">
-        <v>1945.099987623544</v>
+        <v>1945.099987623543</v>
       </c>
       <c r="U37" t="n">
-        <v>1704.088127655342</v>
+        <v>1704.088127655341</v>
       </c>
       <c r="V37" t="n">
         <v>1497.495420760682</v>
@@ -7160,49 +7160,49 @@
         <v>1060.710710614874</v>
       </c>
       <c r="F38" t="n">
-        <v>697.8165871364939</v>
+        <v>697.8165871364936</v>
       </c>
       <c r="G38" t="n">
         <v>330.8042675661121</v>
       </c>
       <c r="H38" t="n">
-        <v>80.98830548225399</v>
+        <v>80.98830548225398</v>
       </c>
       <c r="I38" t="n">
-        <v>80.98830548225399</v>
+        <v>80.98830548225398</v>
       </c>
       <c r="J38" t="n">
-        <v>434.6402272899227</v>
+        <v>267.2345782695697</v>
       </c>
       <c r="K38" t="n">
-        <v>764.5136290784494</v>
+        <v>918.0119385035496</v>
       </c>
       <c r="L38" t="n">
-        <v>1210.652515256568</v>
+        <v>1364.150824681668</v>
       </c>
       <c r="M38" t="n">
-        <v>1738.737425334248</v>
+        <v>2318.107354811425</v>
       </c>
       <c r="N38" t="n">
-        <v>2279.981109731593</v>
+        <v>2859.35103920877</v>
       </c>
       <c r="O38" t="n">
-        <v>2777.726911796619</v>
+        <v>3357.096841273796</v>
       </c>
       <c r="P38" t="n">
-        <v>3472.159270293658</v>
+        <v>3747.410366721216</v>
       </c>
       <c r="Q38" t="n">
-        <v>3927.287567055696</v>
+        <v>3992.346822729948</v>
       </c>
       <c r="R38" t="n">
-        <v>4049.4152741127</v>
+        <v>4049.415274112699</v>
       </c>
       <c r="S38" t="n">
         <v>3986.495146018489</v>
       </c>
       <c r="T38" t="n">
-        <v>3828.470628658222</v>
+        <v>3828.470628658221</v>
       </c>
       <c r="U38" t="n">
         <v>3623.029401185157</v>
@@ -7211,13 +7211,13 @@
         <v>3340.058295152814</v>
       </c>
       <c r="W38" t="n">
-        <v>3035.381421193928</v>
+        <v>3035.381421193927</v>
       </c>
       <c r="X38" t="n">
         <v>2710.007444244075</v>
       </c>
       <c r="Y38" t="n">
-        <v>2367.959893579492</v>
+        <v>2367.959893579491</v>
       </c>
     </row>
     <row r="39">
@@ -7245,31 +7245,31 @@
         <v>181.0160733085343</v>
       </c>
       <c r="H39" t="n">
-        <v>90.35062605610395</v>
+        <v>90.35062605610393</v>
       </c>
       <c r="I39" t="n">
-        <v>80.98830548225399</v>
+        <v>80.98830548225398</v>
       </c>
       <c r="J39" t="n">
-        <v>173.0974626826851</v>
+        <v>189.4839362236414</v>
       </c>
       <c r="K39" t="n">
-        <v>408.6815079938534</v>
+        <v>425.0679815348096</v>
       </c>
       <c r="L39" t="n">
-        <v>771.7758709468017</v>
+        <v>788.1623444877579</v>
       </c>
       <c r="M39" t="n">
-        <v>1214.846734630468</v>
+        <v>1231.233208171424</v>
       </c>
       <c r="N39" t="n">
-        <v>1684.053010593086</v>
+        <v>1700.439484134042</v>
       </c>
       <c r="O39" t="n">
-        <v>2091.065291013614</v>
+        <v>2107.45176455457</v>
       </c>
       <c r="P39" t="n">
-        <v>2398.3954626443</v>
+        <v>2414.781936185256</v>
       </c>
       <c r="Q39" t="n">
         <v>2570.304820599713</v>
@@ -7306,7 +7306,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>770.0147810968451</v>
+        <v>770.0147810968452</v>
       </c>
       <c r="C40" t="n">
         <v>649.1703794801659</v>
@@ -7327,22 +7327,22 @@
         <v>130.6491566829856</v>
       </c>
       <c r="I40" t="n">
-        <v>80.98830548225399</v>
+        <v>80.98830548225398</v>
       </c>
       <c r="J40" t="n">
         <v>172.2619095351098</v>
       </c>
       <c r="K40" t="n">
-        <v>421.7671892492427</v>
+        <v>421.7671892492426</v>
       </c>
       <c r="L40" t="n">
-        <v>783.3929767914919</v>
+        <v>783.3929767914917</v>
       </c>
       <c r="M40" t="n">
         <v>1172.503553812727</v>
       </c>
       <c r="N40" t="n">
-        <v>1558.917326558442</v>
+        <v>1558.917326558441</v>
       </c>
       <c r="O40" t="n">
         <v>1903.414872821973</v>
@@ -7360,22 +7360,22 @@
         <v>2118.835483473516</v>
       </c>
       <c r="T40" t="n">
-        <v>1945.099987623543</v>
+        <v>1945.099987623544</v>
       </c>
       <c r="U40" t="n">
         <v>1704.088127655342</v>
       </c>
       <c r="V40" t="n">
-        <v>1497.495420760682</v>
+        <v>1497.495420760683</v>
       </c>
       <c r="W40" t="n">
-        <v>1256.170032034949</v>
+        <v>1256.17003203495</v>
       </c>
       <c r="X40" t="n">
         <v>1076.27226244816</v>
       </c>
       <c r="Y40" t="n">
-        <v>903.5714646158572</v>
+        <v>903.5714646158573</v>
       </c>
     </row>
     <row r="41">
@@ -7385,22 +7385,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1796.160592309791</v>
+        <v>1513.189486277447</v>
       </c>
       <c r="C41" t="n">
-        <v>1475.289856680607</v>
+        <v>1192.318750648263</v>
       </c>
       <c r="D41" t="n">
-        <v>1165.115939385084</v>
+        <v>1192.318750648263</v>
       </c>
       <c r="E41" t="n">
-        <v>827.4194680980677</v>
+        <v>1050.385463643891</v>
       </c>
       <c r="F41" t="n">
-        <v>464.5253446196878</v>
+        <v>687.4913401655108</v>
       </c>
       <c r="G41" t="n">
-        <v>97.51302504930551</v>
+        <v>320.4790205951292</v>
       </c>
       <c r="H41" t="n">
         <v>70.66305851127099</v>
@@ -7409,25 +7409,25 @@
         <v>70.66305851127099</v>
       </c>
       <c r="J41" t="n">
-        <v>287.5559674646444</v>
+        <v>424.3149803189397</v>
       </c>
       <c r="K41" t="n">
-        <v>617.4293692531712</v>
+        <v>754.1883821074665</v>
       </c>
       <c r="L41" t="n">
-        <v>1063.568255431289</v>
+        <v>1200.327268285585</v>
       </c>
       <c r="M41" t="n">
-        <v>1591.65316550897</v>
+        <v>1728.412178363265</v>
       </c>
       <c r="N41" t="n">
-        <v>2132.896849906315</v>
+        <v>2269.655862760611</v>
       </c>
       <c r="O41" t="n">
-        <v>2630.642651971341</v>
+        <v>2840.834492724647</v>
       </c>
       <c r="P41" t="n">
-        <v>3020.956177418761</v>
+        <v>3231.148018172067</v>
       </c>
       <c r="Q41" t="n">
         <v>3476.084474180799</v>
@@ -7442,19 +7442,19 @@
         <v>3312.208280109072</v>
       </c>
       <c r="U41" t="n">
-        <v>3106.767052636008</v>
+        <v>3106.767052636007</v>
       </c>
       <c r="V41" t="n">
-        <v>3106.767052636008</v>
+        <v>2823.795946603664</v>
       </c>
       <c r="W41" t="n">
-        <v>2802.090178677121</v>
+        <v>2519.119072644778</v>
       </c>
       <c r="X41" t="n">
-        <v>2476.716201727269</v>
+        <v>2193.745095694925</v>
       </c>
       <c r="Y41" t="n">
-        <v>2134.668651062685</v>
+        <v>1851.697545030341</v>
       </c>
     </row>
     <row r="42">
@@ -7488,10 +7488,10 @@
         <v>70.66305851127099</v>
       </c>
       <c r="J42" t="n">
-        <v>179.1586892526586</v>
+        <v>162.7722157117021</v>
       </c>
       <c r="K42" t="n">
-        <v>414.7427345638268</v>
+        <v>398.3562610228703</v>
       </c>
       <c r="L42" t="n">
         <v>777.8370975167751</v>
@@ -7543,25 +7543,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>759.6895341258628</v>
+        <v>759.6895341258614</v>
       </c>
       <c r="C43" t="n">
-        <v>638.8451325091835</v>
+        <v>638.8451325091821</v>
       </c>
       <c r="D43" t="n">
-        <v>536.8202744080754</v>
+        <v>536.8202744080741</v>
       </c>
       <c r="E43" t="n">
-        <v>436.99896213691</v>
+        <v>436.9989621369085</v>
       </c>
       <c r="F43" t="n">
-        <v>338.2007959502272</v>
+        <v>338.2007959502257</v>
       </c>
       <c r="G43" t="n">
-        <v>218.5755432098336</v>
+        <v>218.575543209832</v>
       </c>
       <c r="H43" t="n">
-        <v>120.3239097120032</v>
+        <v>120.3239097120016</v>
       </c>
       <c r="I43" t="n">
         <v>70.66305851127099</v>
@@ -7570,10 +7570,10 @@
         <v>161.9366625641267</v>
       </c>
       <c r="K43" t="n">
-        <v>411.4419422782596</v>
+        <v>411.4419422782594</v>
       </c>
       <c r="L43" t="n">
-        <v>773.0677298205087</v>
+        <v>773.0677298205085</v>
       </c>
       <c r="M43" t="n">
         <v>1162.178306841744</v>
@@ -7582,37 +7582,37 @@
         <v>1548.592079587458</v>
       </c>
       <c r="O43" t="n">
-        <v>1893.08962585099</v>
+        <v>1893.089625850989</v>
       </c>
       <c r="P43" t="n">
         <v>2171.148937537911</v>
       </c>
       <c r="Q43" t="n">
-        <v>2294.728805631843</v>
+        <v>2294.728805631842</v>
       </c>
       <c r="R43" t="n">
         <v>2252.351761785336</v>
       </c>
       <c r="S43" t="n">
-        <v>2108.510236502534</v>
+        <v>2108.510236502533</v>
       </c>
       <c r="T43" t="n">
-        <v>1934.774740652561</v>
+        <v>1934.77474065256</v>
       </c>
       <c r="U43" t="n">
-        <v>1693.762880684359</v>
+        <v>1693.762880684358</v>
       </c>
       <c r="V43" t="n">
-        <v>1487.1701737897</v>
+        <v>1487.170173789699</v>
       </c>
       <c r="W43" t="n">
-        <v>1245.844785063967</v>
+        <v>1245.844785063966</v>
       </c>
       <c r="X43" t="n">
-        <v>1065.947015477177</v>
+        <v>1065.947015477176</v>
       </c>
       <c r="Y43" t="n">
-        <v>893.2462176448748</v>
+        <v>893.2462176448736</v>
       </c>
     </row>
     <row r="44">
@@ -7622,22 +7622,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1939.575359204989</v>
+        <v>1513.189486277447</v>
       </c>
       <c r="C44" t="n">
-        <v>1618.704623575805</v>
+        <v>1192.318750648263</v>
       </c>
       <c r="D44" t="n">
-        <v>1308.530706280283</v>
+        <v>882.1448333527403</v>
       </c>
       <c r="E44" t="n">
-        <v>970.8342349932661</v>
+        <v>882.1448333527403</v>
       </c>
       <c r="F44" t="n">
-        <v>607.9401115148862</v>
+        <v>519.2507098743604</v>
       </c>
       <c r="G44" t="n">
-        <v>240.9277919445049</v>
+        <v>152.2383903039786</v>
       </c>
       <c r="H44" t="n">
         <v>70.66305851127099</v>
@@ -7646,52 +7646,52 @@
         <v>70.66305851127099</v>
       </c>
       <c r="J44" t="n">
-        <v>287.5559674646444</v>
+        <v>256.9093312985867</v>
       </c>
       <c r="K44" t="n">
-        <v>617.4293692531712</v>
+        <v>586.7827330871135</v>
       </c>
       <c r="L44" t="n">
-        <v>1063.568255431289</v>
+        <v>1032.921619265232</v>
       </c>
       <c r="M44" t="n">
-        <v>1591.65316550897</v>
+        <v>1736.785750588023</v>
       </c>
       <c r="N44" t="n">
-        <v>2132.896849906315</v>
+        <v>2278.029434985368</v>
       </c>
       <c r="O44" t="n">
-        <v>2630.642651971341</v>
+        <v>2775.775237050394</v>
       </c>
       <c r="P44" t="n">
-        <v>3020.956177418761</v>
+        <v>3166.088762497814</v>
       </c>
       <c r="Q44" t="n">
-        <v>3476.084474180799</v>
+        <v>3411.025218506546</v>
       </c>
       <c r="R44" t="n">
         <v>3533.15292556355</v>
       </c>
       <c r="S44" t="n">
-        <v>3533.15292556355</v>
+        <v>3470.23279746934</v>
       </c>
       <c r="T44" t="n">
-        <v>3533.15292556355</v>
+        <v>3312.208280109072</v>
       </c>
       <c r="U44" t="n">
-        <v>3533.15292556355</v>
+        <v>3106.767052636008</v>
       </c>
       <c r="V44" t="n">
-        <v>3250.181819531207</v>
+        <v>2823.795946603665</v>
       </c>
       <c r="W44" t="n">
-        <v>2945.50494557232</v>
+        <v>2519.119072644778</v>
       </c>
       <c r="X44" t="n">
-        <v>2620.130968622468</v>
+        <v>2193.745095694926</v>
       </c>
       <c r="Y44" t="n">
-        <v>2278.083417957883</v>
+        <v>1851.697545030342</v>
       </c>
     </row>
     <row r="45">
@@ -7725,16 +7725,16 @@
         <v>70.66305851127099</v>
       </c>
       <c r="J45" t="n">
-        <v>179.1586892526586</v>
+        <v>162.7722157117021</v>
       </c>
       <c r="K45" t="n">
-        <v>414.7427345638268</v>
+        <v>398.3562610228703</v>
       </c>
       <c r="L45" t="n">
-        <v>777.8370975167751</v>
+        <v>761.4506239758186</v>
       </c>
       <c r="M45" t="n">
-        <v>1220.907961200441</v>
+        <v>1204.521487659485</v>
       </c>
       <c r="N45" t="n">
         <v>1690.114237163059</v>
@@ -7780,55 +7780,55 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>759.6895341258632</v>
+        <v>759.6895341258623</v>
       </c>
       <c r="C46" t="n">
-        <v>638.8451325091839</v>
+        <v>638.845132509183</v>
       </c>
       <c r="D46" t="n">
-        <v>536.8202744080759</v>
+        <v>536.820274408075</v>
       </c>
       <c r="E46" t="n">
-        <v>436.9989621369104</v>
+        <v>436.9989621369095</v>
       </c>
       <c r="F46" t="n">
-        <v>338.2007959502278</v>
+        <v>338.2007959502268</v>
       </c>
       <c r="G46" t="n">
-        <v>218.5755432098341</v>
+        <v>218.5755432098331</v>
       </c>
       <c r="H46" t="n">
-        <v>120.3239097120036</v>
+        <v>120.3239097120026</v>
       </c>
       <c r="I46" t="n">
         <v>70.66305851127099</v>
       </c>
       <c r="J46" t="n">
-        <v>161.9366625641268</v>
+        <v>161.9366625641269</v>
       </c>
       <c r="K46" t="n">
-        <v>411.4419422782603</v>
+        <v>411.4419422782598</v>
       </c>
       <c r="L46" t="n">
-        <v>773.0677298205094</v>
+        <v>773.0677298205089</v>
       </c>
       <c r="M46" t="n">
-        <v>1162.178306841745</v>
+        <v>1162.178306841744</v>
       </c>
       <c r="N46" t="n">
         <v>1548.592079587459</v>
       </c>
       <c r="O46" t="n">
-        <v>1893.089625850991</v>
+        <v>1893.08962585099</v>
       </c>
       <c r="P46" t="n">
-        <v>2171.148937537912</v>
+        <v>2171.148937537911</v>
       </c>
       <c r="Q46" t="n">
         <v>2294.728805631843</v>
       </c>
       <c r="R46" t="n">
-        <v>2252.351761785337</v>
+        <v>2252.351761785336</v>
       </c>
       <c r="S46" t="n">
         <v>2108.510236502534</v>
@@ -7837,19 +7837,19 @@
         <v>1934.774740652561</v>
       </c>
       <c r="U46" t="n">
-        <v>1693.76288068436</v>
+        <v>1693.762880684359</v>
       </c>
       <c r="V46" t="n">
-        <v>1487.170173789701</v>
+        <v>1487.1701737897</v>
       </c>
       <c r="W46" t="n">
-        <v>1245.844785063968</v>
+        <v>1245.844785063967</v>
       </c>
       <c r="X46" t="n">
-        <v>1065.947015477178</v>
+        <v>1065.947015477177</v>
       </c>
       <c r="Y46" t="n">
-        <v>893.2462176448753</v>
+        <v>893.2462176448744</v>
       </c>
     </row>
   </sheetData>
@@ -7979,10 +7979,10 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K2" t="n">
-        <v>220.0898510449805</v>
+        <v>226.965896786692</v>
       </c>
       <c r="L2" t="n">
-        <v>242.6424607116987</v>
+        <v>242.3646406817305</v>
       </c>
       <c r="M2" t="n">
         <v>237.2222789689842</v>
@@ -7991,10 +7991,10 @@
         <v>229.4130635965909</v>
       </c>
       <c r="O2" t="n">
-        <v>236.9742571633982</v>
+        <v>230.0982114216867</v>
       </c>
       <c r="P2" t="n">
-        <v>237.8312214670128</v>
+        <v>238.109041496981</v>
       </c>
       <c r="Q2" t="n">
         <v>212.3149906599047</v>
@@ -8061,19 +8061,19 @@
         <v>137.841438974359</v>
       </c>
       <c r="L3" t="n">
-        <v>138.5543797798742</v>
+        <v>145.4304255215856</v>
       </c>
       <c r="M3" t="n">
         <v>142.1340339220183</v>
       </c>
       <c r="N3" t="n">
-        <v>137.9399377950766</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O3" t="n">
         <v>149.4722901861559</v>
       </c>
       <c r="P3" t="n">
-        <v>140.8504531560417</v>
+        <v>140.5726331260735</v>
       </c>
       <c r="Q3" t="n">
         <v>146.857819827733</v>
@@ -8140,10 +8140,10 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L4" t="n">
-        <v>141.4829019929816</v>
+        <v>141.7607220229497</v>
       </c>
       <c r="M4" t="n">
-        <v>145.8018296893165</v>
+        <v>145.5240096593483</v>
       </c>
       <c r="N4" t="n">
         <v>134.5615902069446</v>
@@ -8222,16 +8222,16 @@
         <v>242.6424607116987</v>
       </c>
       <c r="M5" t="n">
-        <v>237.2222789689842</v>
+        <v>236.944458939016</v>
       </c>
       <c r="N5" t="n">
-        <v>236.2891093383024</v>
+        <v>229.4130635965909</v>
       </c>
       <c r="O5" t="n">
-        <v>236.69643713343</v>
+        <v>236.9742571633982</v>
       </c>
       <c r="P5" t="n">
-        <v>231.2329957552695</v>
+        <v>238.109041496981</v>
       </c>
       <c r="Q5" t="n">
         <v>212.3149906599047</v>
@@ -8298,10 +8298,10 @@
         <v>144.7174847160704</v>
       </c>
       <c r="L6" t="n">
-        <v>145.4304255215856</v>
+        <v>145.1526054916175</v>
       </c>
       <c r="M6" t="n">
-        <v>148.7322596337616</v>
+        <v>149.0100796637298</v>
       </c>
       <c r="N6" t="n">
         <v>131.3417120833333</v>
@@ -8453,19 +8453,19 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K8" t="n">
-        <v>220.0898510449805</v>
+        <v>235.3925885601156</v>
       </c>
       <c r="L8" t="n">
-        <v>251.0691524851223</v>
+        <v>235.7664149699872</v>
       </c>
       <c r="M8" t="n">
         <v>245.6489707424078</v>
       </c>
       <c r="N8" t="n">
-        <v>244.097508686872</v>
+        <v>244.715801111726</v>
       </c>
       <c r="O8" t="n">
-        <v>245.4009489368218</v>
+        <v>244.7826565119678</v>
       </c>
       <c r="P8" t="n">
         <v>231.2329957552695</v>
@@ -8687,7 +8687,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -8696,7 +8696,7 @@
         <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>243.2711888074373</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
@@ -8708,7 +8708,7 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>74.17457363536462</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -8781,13 +8781,13 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>16.55199347571363</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>16.55199347571383</v>
       </c>
       <c r="R12" t="n">
         <v>1.183828205792452</v>
@@ -8924,7 +8924,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>30.9561981475326</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -8936,7 +8936,7 @@
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>243.2711888074386</v>
       </c>
       <c r="O14" t="n">
         <v>0</v>
@@ -8945,7 +8945,7 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -9009,7 +9009,7 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>16.55199347571363</v>
+        <v>16.55199347571357</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -9164,19 +9164,19 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>449.5135334928325</v>
+        <v>261.0767384158831</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>69.99219762123164</v>
+        <v>0</v>
       </c>
       <c r="P17" t="n">
         <v>0</v>
@@ -9185,7 +9185,7 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9240,7 +9240,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>16.55199347571339</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -9255,7 +9255,7 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>16.55199347571318</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -9398,10 +9398,10 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>51.71987672489456</v>
       </c>
       <c r="L20" t="n">
         <v>0</v>
@@ -9413,16 +9413,16 @@
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P20" t="n">
-        <v>307.19074045416</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q20" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9486,7 +9486,7 @@
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>16.55199347571335</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
@@ -9498,7 +9498,7 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>16.55199347571335</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>1.183828205792452</v>
@@ -9635,7 +9635,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -9647,19 +9647,19 @@
         <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>373.5185848963772</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P23" t="n">
-        <v>307.19074045416</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9732,10 +9732,10 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>16.55199347571323</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>16.55199347571335</v>
       </c>
       <c r="R24" t="n">
         <v>1.183828205792452</v>
@@ -9872,22 +9872,22 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>384.9860659288801</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>113.6307987895233</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P26" t="n">
         <v>321.7987081714826</v>
@@ -9896,7 +9896,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9954,7 +9954,7 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>16.55199347571332</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -9972,7 +9972,7 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>16.55199347571335</v>
       </c>
       <c r="R27" t="n">
         <v>1.183828205792452</v>
@@ -10109,22 +10109,22 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>60.08098799738968</v>
       </c>
       <c r="M29" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O29" t="n">
-        <v>259.6179450072131</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P29" t="n">
         <v>321.7987081714826</v>
@@ -10188,7 +10188,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>16.55199347571332</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -10206,7 +10206,7 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>16.55199347571323</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -10346,19 +10346,19 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>323.8203891237683</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L32" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>83.36946199016188</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O32" t="n">
         <v>0</v>
@@ -10370,7 +10370,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10583,16 +10583,16 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L35" t="n">
         <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>449.5135334928325</v>
+        <v>430.1733535879561</v>
       </c>
       <c r="N35" t="n">
         <v>0</v>
@@ -10604,10 +10604,10 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>69.99219762123161</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10665,7 +10665,7 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>16.5519934757134</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -10683,7 +10683,7 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>16.55199347571335</v>
       </c>
       <c r="R36" t="n">
         <v>1.183828205792452</v>
@@ -10820,16 +10820,16 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L38" t="n">
         <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>430.1733535879561</v>
       </c>
       <c r="N38" t="n">
         <v>0</v>
@@ -10838,13 +10838,13 @@
         <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>307.1907404541609</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10899,7 +10899,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>16.55199347571342</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -10920,7 +10920,7 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>16.55199347571335</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>1.183828205792452</v>
@@ -11057,7 +11057,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>30.95619814753309</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -11072,13 +11072,13 @@
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>74.1745736353638</v>
       </c>
       <c r="P41" t="n">
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -11136,13 +11136,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>16.55199347571362</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>16.55199347571363</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
@@ -11294,7 +11294,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>30.95619814753309</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -11303,7 +11303,7 @@
         <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>177.5547689344553</v>
       </c>
       <c r="N44" t="n">
         <v>0</v>
@@ -11315,10 +11315,10 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11373,7 +11373,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>16.55199347571362</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -11385,7 +11385,7 @@
         <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>16.55199347571363</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
@@ -23270,7 +23270,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>363.3421963746779</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -23306,22 +23306,22 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>62.29092681326759</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>156.444272186665</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>203.3868151983338</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>78.75571636411833</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>137.5355341877064</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23498,13 +23498,13 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>141.6125483187878</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>359.2651822435961</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -23543,16 +23543,16 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>62.29092681326759</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>156.444272186665</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>203.3868151983338</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>78.75571636411877</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -23671,7 +23671,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>-5.400124791776761e-13</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23744,7 +23744,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>-8.526512829121202e-13</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -23780,7 +23780,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>1.072919530997751e-12</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -24382,7 +24382,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>1.087130385712953e-12</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24598,10 +24598,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -24610,16 +24610,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>123.5701588780399</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.0398637111051</v>
       </c>
       <c r="H28" t="n">
         <v>144.8799806609676</v>
       </c>
       <c r="I28" t="n">
-        <v>96.77510618683968</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24652,10 +24652,10 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>219.6090043895884</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>66.09967846213219</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24664,7 +24664,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24835,13 +24835,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>113.5902065283719</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -24850,7 +24850,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.0398637111051</v>
       </c>
       <c r="H31" t="n">
         <v>144.8799806609676</v>
@@ -24883,7 +24883,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>89.5641369061567</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24901,7 +24901,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>68.33098688714858</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -25072,7 +25072,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>177.6518264863172</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>165.0666674030077</v>
@@ -25081,19 +25081,19 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>144.253808950949</v>
       </c>
       <c r="F34" t="n">
         <v>143.2408943273111</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>163.8597100154849</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>142.6998269653474</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>94.59495249121954</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,10 +25120,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>87.38398321053657</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>187.8338198324699</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25132,13 +25132,13 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>12.9841064495339</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>105.5227753432107</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>216.4044996564747</v>
@@ -25631,10 +25631,10 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>307.0721781225677</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>193.8055524398181</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
@@ -25643,7 +25643,7 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>220.7363355903653</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -25685,7 +25685,7 @@
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>280.1413949720195</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
@@ -25804,7 +25804,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>-5.400124791776761e-13</v>
+        <v>1.101341240428155e-12</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25871,7 +25871,7 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>334.3195065741464</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
@@ -25880,7 +25880,7 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>78.75571636411787</v>
+        <v>166.5582239882389</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -25913,13 +25913,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>62.29092681326759</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>156.4442721866649</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>203.3868151983338</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -26041,7 +26041,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>-9.947598300641403e-13</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>705186.8905822092</v>
+        <v>705186.8905822093</v>
       </c>
     </row>
     <row r="8">
@@ -26311,13 +26311,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>758843.179809185</v>
+        <v>758843.1798091847</v>
       </c>
       <c r="C2" t="n">
         <v>758843.1798091849</v>
       </c>
       <c r="D2" t="n">
-        <v>759463.6371244619</v>
+        <v>759463.6371244618</v>
       </c>
       <c r="E2" t="n">
         <v>722584.009823154</v>
@@ -26326,34 +26326,34 @@
         <v>722584.0098231538</v>
       </c>
       <c r="G2" t="n">
+        <v>759463.6371244622</v>
+      </c>
+      <c r="H2" t="n">
         <v>759463.6371244621</v>
       </c>
-      <c r="H2" t="n">
-        <v>759463.6371244618</v>
-      </c>
       <c r="I2" t="n">
-        <v>759463.6371244619</v>
+        <v>759463.6371244621</v>
       </c>
       <c r="J2" t="n">
+        <v>734264.8372708757</v>
+      </c>
+      <c r="K2" t="n">
         <v>734264.8372708758</v>
-      </c>
-      <c r="K2" t="n">
-        <v>734264.8372708756</v>
       </c>
       <c r="L2" t="n">
         <v>735418.7179735055</v>
       </c>
       <c r="M2" t="n">
-        <v>759463.6371244622</v>
+        <v>759463.6371244623</v>
       </c>
       <c r="N2" t="n">
-        <v>759463.6371244621</v>
+        <v>759463.6371244619</v>
       </c>
       <c r="O2" t="n">
-        <v>722584.0098231543</v>
+        <v>722584.0098231541</v>
       </c>
       <c r="P2" t="n">
-        <v>722584.0098231541</v>
+        <v>722584.0098231537</v>
       </c>
     </row>
     <row r="3">
@@ -26378,7 +26378,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>35374.94145052343</v>
+        <v>35374.94145052339</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,7 +26387,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>49622.66356853307</v>
+        <v>49622.663568533</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,7 +26396,7 @@
         <v>1744.122956496106</v>
       </c>
       <c r="M3" t="n">
-        <v>209200.2000255334</v>
+        <v>209200.2000255336</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,7 +26415,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>414471.3742669506</v>
+        <v>414471.3742669507</v>
       </c>
       <c r="C4" t="n">
         <v>414471.3742669506</v>
@@ -26424,19 +26424,19 @@
         <v>413719.6142666658</v>
       </c>
       <c r="E4" t="n">
-        <v>63145.0079450077</v>
+        <v>63145.00794500775</v>
       </c>
       <c r="F4" t="n">
-        <v>63145.00794500772</v>
+        <v>63145.00794500774</v>
       </c>
       <c r="G4" t="n">
         <v>76426.82785183153</v>
       </c>
       <c r="H4" t="n">
-        <v>76426.82785183155</v>
+        <v>76426.82785183156</v>
       </c>
       <c r="I4" t="n">
-        <v>76426.82785183155</v>
+        <v>76426.82785183156</v>
       </c>
       <c r="J4" t="n">
         <v>47342.68366821363</v>
@@ -26445,19 +26445,19 @@
         <v>47342.68366821365</v>
       </c>
       <c r="L4" t="n">
-        <v>48678.6586830075</v>
+        <v>48678.65868300751</v>
       </c>
       <c r="M4" t="n">
         <v>76426.82785183153</v>
       </c>
       <c r="N4" t="n">
-        <v>76426.82785183156</v>
+        <v>76426.82785183155</v>
       </c>
       <c r="O4" t="n">
-        <v>63145.00794500773</v>
+        <v>63145.00794500766</v>
       </c>
       <c r="P4" t="n">
-        <v>63145.00794500773</v>
+        <v>63145.0079450077</v>
       </c>
     </row>
     <row r="5">
@@ -26476,19 +26476,19 @@
         <v>34558.00644092021</v>
       </c>
       <c r="E5" t="n">
-        <v>81293.73658699766</v>
+        <v>81293.73658699769</v>
       </c>
       <c r="F5" t="n">
-        <v>81293.73658699766</v>
+        <v>81293.73658699769</v>
       </c>
       <c r="G5" t="n">
         <v>89140.92428494475</v>
       </c>
       <c r="H5" t="n">
-        <v>89140.92428494475</v>
+        <v>89140.92428494476</v>
       </c>
       <c r="I5" t="n">
-        <v>89140.92428494475</v>
+        <v>89140.92428494476</v>
       </c>
       <c r="J5" t="n">
         <v>96251.41964915325</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>308021.8208840388</v>
+        <v>308020.1439723755</v>
       </c>
       <c r="C6" t="n">
-        <v>310326.1419611382</v>
+        <v>310324.4650494753</v>
       </c>
       <c r="D6" t="n">
-        <v>308568.4331512973</v>
+        <v>308568.4331512972</v>
       </c>
       <c r="E6" t="n">
-        <v>-588372.634936735</v>
+        <v>-588472.3096051172</v>
       </c>
       <c r="F6" t="n">
-        <v>578145.2652911484</v>
+        <v>578045.5906227664</v>
       </c>
       <c r="G6" t="n">
-        <v>558520.9435371623</v>
+        <v>558520.9435371625</v>
       </c>
       <c r="H6" t="n">
-        <v>593895.8849876855</v>
+        <v>593895.8849876857</v>
       </c>
       <c r="I6" t="n">
-        <v>593895.8849876856</v>
+        <v>593895.8849876857</v>
       </c>
       <c r="J6" t="n">
-        <v>541048.0703849759</v>
+        <v>540979.9655205066</v>
       </c>
       <c r="K6" t="n">
-        <v>590670.7339535087</v>
+        <v>590602.6290890398</v>
       </c>
       <c r="L6" t="n">
-        <v>589073.5762036358</v>
+        <v>589008.5899356602</v>
       </c>
       <c r="M6" t="n">
         <v>384695.6849621524</v>
       </c>
       <c r="N6" t="n">
-        <v>593895.8849876857</v>
+        <v>593895.8849876856</v>
       </c>
       <c r="O6" t="n">
-        <v>578145.2652911489</v>
+        <v>578045.5906227669</v>
       </c>
       <c r="P6" t="n">
-        <v>578145.2652911487</v>
+        <v>578045.5906227665</v>
       </c>
     </row>
   </sheetData>
@@ -26692,19 +26692,19 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>47.61086349811537</v>
+        <v>47.61086349811539</v>
       </c>
       <c r="F2" t="n">
-        <v>47.61086349811538</v>
+        <v>47.61086349811535</v>
       </c>
       <c r="G2" t="n">
-        <v>47.61086349811536</v>
+        <v>47.61086349811533</v>
       </c>
       <c r="H2" t="n">
-        <v>47.61086349811538</v>
+        <v>47.61086349811533</v>
       </c>
       <c r="I2" t="n">
-        <v>47.61086349811538</v>
+        <v>47.61086349811533</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -26716,16 +26716,16 @@
         <v>2.180153695620132</v>
       </c>
       <c r="M2" t="n">
-        <v>47.61086349811537</v>
+        <v>47.61086349811536</v>
       </c>
       <c r="N2" t="n">
-        <v>47.61086349811538</v>
+        <v>47.61086349811536</v>
       </c>
       <c r="O2" t="n">
-        <v>47.61086349811538</v>
+        <v>47.61086349811531</v>
       </c>
       <c r="P2" t="n">
-        <v>47.61086349811538</v>
+        <v>47.61086349811534</v>
       </c>
     </row>
     <row r="3">
@@ -26796,10 +26796,10 @@
         <v>15.30273751513505</v>
       </c>
       <c r="E4" t="n">
-        <v>883.2882313908873</v>
+        <v>883.2882313908876</v>
       </c>
       <c r="F4" t="n">
-        <v>883.2882313908873</v>
+        <v>883.2882313908876</v>
       </c>
       <c r="G4" t="n">
         <v>1012.353818528175</v>
@@ -26914,7 +26914,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>47.61086349811537</v>
+        <v>47.61086349811539</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26929,7 +26929,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>5.665076810060058e-14</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26938,7 +26938,7 @@
         <v>2.180153695620132</v>
       </c>
       <c r="M2" t="n">
-        <v>45.43070980249524</v>
+        <v>45.43070980249522</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -27018,13 +27018,13 @@
         <v>8.426691773423613</v>
       </c>
       <c r="E4" t="n">
-        <v>867.9854938757522</v>
+        <v>867.9854938757526</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>129.0655871372874</v>
+        <v>129.0655871372873</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>189.6571813935465</v>
+        <v>189.657181393546</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>693.6310499973406</v>
+        <v>693.6310499973411</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,7 +27151,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>47.61086349811537</v>
+        <v>47.61086349811539</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>5.665076810060058e-14</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27264,13 +27264,13 @@
         <v>8.426691773423613</v>
       </c>
       <c r="M4" t="n">
-        <v>867.9854938757522</v>
+        <v>867.9854938757526</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>129.0655871372874</v>
+        <v>129.0655871372873</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27400,7 +27400,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J2" t="n">
-        <v>5.892868265313084</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27430,7 +27430,7 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T2" t="n">
-        <v>223.0958495641314</v>
+        <v>217.0394284748319</v>
       </c>
       <c r="U2" t="n">
         <v>251.3456529078365</v>
@@ -27455,10 +27455,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>159.6571379081559</v>
+        <v>160.4767625605679</v>
       </c>
       <c r="C3" t="n">
-        <v>167.3986692252742</v>
+        <v>165.8324532466043</v>
       </c>
       <c r="D3" t="n">
         <v>147.4450655646388</v>
@@ -27479,7 +27479,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -27503,10 +27503,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>93.2817884109317</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
-        <v>164.8071253621264</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
         <v>200.1647286948216</v>
@@ -27521,10 +27521,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>198.896939461766</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>198.8066500355929</v>
       </c>
     </row>
     <row r="4">
@@ -27543,7 +27543,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>143.0989822923762</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -27552,10 +27552,10 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H4" t="n">
-        <v>155.3511267657281</v>
+        <v>162.2271725074396</v>
       </c>
       <c r="I4" t="n">
-        <v>148.5744291855468</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J4" t="n">
         <v>93.35918011667277</v>
@@ -27576,10 +27576,10 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q4" t="n">
-        <v>86.16204325169439</v>
+        <v>79.28599750998295</v>
       </c>
       <c r="R4" t="n">
         <v>170.417345635458</v>
@@ -27594,10 +27594,10 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>245.2615975821166</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>280.4665772472916</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -27613,7 +27613,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>376.6774205741812</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -27637,7 +27637,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J5" t="n">
-        <v>5.073243612901081</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -27658,7 +27658,7 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>3.934278125245373</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
         <v>149.8691179411497</v>
@@ -27673,7 +27673,7 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>320.8762127284235</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -27692,7 +27692,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>161.2233538868258</v>
+        <v>159.6571379081559</v>
       </c>
       <c r="C6" t="n">
         <v>172.7084989883157</v>
@@ -27701,7 +27701,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>151.5886593661015</v>
       </c>
       <c r="F6" t="n">
         <v>145.0692123933839</v>
@@ -27716,7 +27716,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -27746,22 +27746,22 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T6" t="n">
-        <v>200.1647286948216</v>
+        <v>193.2886829531102</v>
       </c>
       <c r="U6" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>225.9245414077138</v>
       </c>
       <c r="W6" t="n">
-        <v>244.8189374192082</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>198.896939461766</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>198.8066500355929</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -27798,7 +27798,7 @@
         <v>93.35918011667277</v>
       </c>
       <c r="K7" t="n">
-        <v>15.39344608417142</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -27813,22 +27813,22 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q7" t="n">
-        <v>79.28599750998295</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R7" t="n">
         <v>170.417345635458</v>
       </c>
       <c r="S7" t="n">
-        <v>220.6816176827793</v>
+        <v>217.1405522952608</v>
       </c>
       <c r="T7" t="n">
         <v>227.9455894282815</v>
       </c>
       <c r="U7" t="n">
-        <v>286.3190293564909</v>
+        <v>279.4429836147795</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -27837,7 +27837,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>219.6532342997377</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27871,10 +27871,10 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I8" t="n">
-        <v>210.4758895704059</v>
+        <v>203.8732841087864</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -27895,13 +27895,13 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S8" t="n">
-        <v>193.7519776635131</v>
+        <v>193.7173320711103</v>
       </c>
       <c r="T8" t="n">
         <v>223.0958495641314</v>
@@ -27916,7 +27916,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>354.428363163334</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -27932,16 +27932,16 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>159.9764391112427</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>132.1423280495037</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>142.3423429402659</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>129.7664748782488</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
         <v>137.3435171632106</v>
@@ -27953,7 +27953,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -27977,7 +27977,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>100.1578341526431</v>
+        <v>84.85509663750808</v>
       </c>
       <c r="S9" t="n">
         <v>171.6831711038378</v>
@@ -27986,13 +27986,13 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
-        <v>225.9413820809748</v>
+        <v>212.4627308776439</v>
       </c>
       <c r="V9" t="n">
-        <v>232.8005871494253</v>
+        <v>217.4978496342902</v>
       </c>
       <c r="W9" t="n">
-        <v>251.6949831609196</v>
+        <v>236.3922456457846</v>
       </c>
       <c r="X9" t="n">
         <v>205.7729852034775</v>
@@ -28014,10 +28014,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>133.3127355030773</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>131.1312251314341</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -28035,7 +28035,7 @@
         <v>93.35918011667277</v>
       </c>
       <c r="K10" t="n">
-        <v>8.790840622551908</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -28053,13 +28053,13 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q10" t="n">
-        <v>70.85930573655934</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R10" t="n">
-        <v>177.2933913771695</v>
+        <v>161.9906538620344</v>
       </c>
       <c r="S10" t="n">
-        <v>224.0165980369723</v>
+        <v>208.7138605218372</v>
       </c>
       <c r="T10" t="n">
         <v>227.9455894282815</v>
@@ -28071,10 +28071,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>273.04434713326</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>210.4069178739021</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -28087,25 +28087,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>47.61086349811537</v>
+        <v>47.61086349811539</v>
       </c>
       <c r="C11" t="n">
-        <v>47.61086349811537</v>
+        <v>47.61086349811539</v>
       </c>
       <c r="D11" t="n">
-        <v>47.61086349811537</v>
+        <v>47.61086349811539</v>
       </c>
       <c r="E11" t="n">
-        <v>47.61086349811537</v>
+        <v>47.61086349811539</v>
       </c>
       <c r="F11" t="n">
-        <v>47.61086349811537</v>
+        <v>47.61086349811539</v>
       </c>
       <c r="G11" t="n">
-        <v>47.61086349811537</v>
+        <v>47.61086349811539</v>
       </c>
       <c r="H11" t="n">
-        <v>47.61086349811537</v>
+        <v>47.61086349811539</v>
       </c>
       <c r="I11" t="n">
         <v>42.78494226402603</v>
@@ -28138,25 +28138,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>47.61086349811537</v>
+        <v>47.61086349811539</v>
       </c>
       <c r="T11" t="n">
-        <v>47.61086349811537</v>
+        <v>47.61086349811539</v>
       </c>
       <c r="U11" t="n">
-        <v>47.61086349811537</v>
+        <v>47.61086349811539</v>
       </c>
       <c r="V11" t="n">
-        <v>47.61086349811537</v>
+        <v>47.61086349811539</v>
       </c>
       <c r="W11" t="n">
-        <v>47.61086349811537</v>
+        <v>47.61086349811539</v>
       </c>
       <c r="X11" t="n">
-        <v>47.61086349811537</v>
+        <v>47.61086349811539</v>
       </c>
       <c r="Y11" t="n">
-        <v>47.61086349811537</v>
+        <v>47.61086349811539</v>
       </c>
     </row>
     <row r="12">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>47.61086349811537</v>
+        <v>47.61086349811539</v>
       </c>
       <c r="C13" t="n">
-        <v>47.61086349811537</v>
+        <v>47.61086349811539</v>
       </c>
       <c r="D13" t="n">
-        <v>47.61086349811537</v>
+        <v>47.61086349811539</v>
       </c>
       <c r="E13" t="n">
-        <v>47.61086349811537</v>
+        <v>47.61086349811539</v>
       </c>
       <c r="F13" t="n">
-        <v>47.61086349811537</v>
+        <v>47.61086349811539</v>
       </c>
       <c r="G13" t="n">
-        <v>47.61086349811537</v>
+        <v>47.61086349811539</v>
       </c>
       <c r="H13" t="n">
-        <v>47.61086349811537</v>
+        <v>47.61086349811539</v>
       </c>
       <c r="I13" t="n">
-        <v>47.61086349811537</v>
+        <v>47.61086349811539</v>
       </c>
       <c r="J13" t="n">
-        <v>47.61086349811537</v>
+        <v>47.61086349811539</v>
       </c>
       <c r="K13" t="n">
-        <v>47.61086349811537</v>
+        <v>47.61086349811539</v>
       </c>
       <c r="L13" t="n">
-        <v>47.61086349811537</v>
+        <v>47.61086349811539</v>
       </c>
       <c r="M13" t="n">
-        <v>47.61086349811537</v>
+        <v>47.61086349811539</v>
       </c>
       <c r="N13" t="n">
-        <v>47.61086349811537</v>
+        <v>47.61086349811539</v>
       </c>
       <c r="O13" t="n">
-        <v>47.61086349811537</v>
+        <v>47.61086349811539</v>
       </c>
       <c r="P13" t="n">
-        <v>47.61086349811537</v>
+        <v>47.61086349811539</v>
       </c>
       <c r="Q13" t="n">
-        <v>47.61086349811537</v>
+        <v>47.61086349811539</v>
       </c>
       <c r="R13" t="n">
-        <v>47.61086349811537</v>
+        <v>47.61086349811539</v>
       </c>
       <c r="S13" t="n">
-        <v>47.61086349811537</v>
+        <v>47.61086349811539</v>
       </c>
       <c r="T13" t="n">
-        <v>47.61086349811537</v>
+        <v>47.61086349811539</v>
       </c>
       <c r="U13" t="n">
-        <v>47.61086349811537</v>
+        <v>47.61086349811539</v>
       </c>
       <c r="V13" t="n">
-        <v>47.61086349811537</v>
+        <v>47.61086349811539</v>
       </c>
       <c r="W13" t="n">
-        <v>47.61086349811537</v>
+        <v>47.61086349811539</v>
       </c>
       <c r="X13" t="n">
-        <v>47.61086349811537</v>
+        <v>47.61086349811539</v>
       </c>
       <c r="Y13" t="n">
-        <v>47.61086349811537</v>
+        <v>47.61086349811539</v>
       </c>
     </row>
     <row r="14">
@@ -28324,25 +28324,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>47.61086349811538</v>
+        <v>47.61086349811535</v>
       </c>
       <c r="C14" t="n">
-        <v>47.61086349811538</v>
+        <v>47.61086349811535</v>
       </c>
       <c r="D14" t="n">
-        <v>47.61086349811538</v>
+        <v>47.61086349811535</v>
       </c>
       <c r="E14" t="n">
-        <v>47.61086349811538</v>
+        <v>47.61086349811535</v>
       </c>
       <c r="F14" t="n">
-        <v>47.61086349811538</v>
+        <v>47.61086349811535</v>
       </c>
       <c r="G14" t="n">
-        <v>47.61086349811538</v>
+        <v>47.61086349811535</v>
       </c>
       <c r="H14" t="n">
-        <v>47.61086349811538</v>
+        <v>47.61086349811535</v>
       </c>
       <c r="I14" t="n">
         <v>42.78494226402603</v>
@@ -28375,25 +28375,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>47.61086349811538</v>
+        <v>47.61086349811535</v>
       </c>
       <c r="T14" t="n">
-        <v>47.61086349811538</v>
+        <v>47.61086349811535</v>
       </c>
       <c r="U14" t="n">
-        <v>47.61086349811538</v>
+        <v>47.61086349811535</v>
       </c>
       <c r="V14" t="n">
-        <v>47.61086349811538</v>
+        <v>47.61086349811535</v>
       </c>
       <c r="W14" t="n">
-        <v>47.61086349811538</v>
+        <v>47.61086349811535</v>
       </c>
       <c r="X14" t="n">
-        <v>47.61086349811538</v>
+        <v>47.61086349811535</v>
       </c>
       <c r="Y14" t="n">
-        <v>47.61086349811538</v>
+        <v>47.61086349811535</v>
       </c>
     </row>
     <row r="15">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>47.61086349811538</v>
+        <v>47.61086349811535</v>
       </c>
       <c r="C16" t="n">
-        <v>47.61086349811538</v>
+        <v>47.61086349811535</v>
       </c>
       <c r="D16" t="n">
-        <v>47.61086349811538</v>
+        <v>47.61086349811535</v>
       </c>
       <c r="E16" t="n">
-        <v>47.61086349811538</v>
+        <v>47.61086349811535</v>
       </c>
       <c r="F16" t="n">
-        <v>47.61086349811538</v>
+        <v>47.61086349811535</v>
       </c>
       <c r="G16" t="n">
-        <v>47.61086349811538</v>
+        <v>47.61086349811535</v>
       </c>
       <c r="H16" t="n">
-        <v>47.61086349811538</v>
+        <v>47.61086349811535</v>
       </c>
       <c r="I16" t="n">
-        <v>47.61086349811538</v>
+        <v>47.61086349811535</v>
       </c>
       <c r="J16" t="n">
-        <v>47.61086349811538</v>
+        <v>47.61086349811535</v>
       </c>
       <c r="K16" t="n">
-        <v>47.61086349811538</v>
+        <v>47.61086349811535</v>
       </c>
       <c r="L16" t="n">
-        <v>47.61086349811538</v>
+        <v>47.61086349811535</v>
       </c>
       <c r="M16" t="n">
-        <v>47.61086349811538</v>
+        <v>47.61086349811535</v>
       </c>
       <c r="N16" t="n">
-        <v>47.61086349811538</v>
+        <v>47.61086349811535</v>
       </c>
       <c r="O16" t="n">
-        <v>47.61086349811538</v>
+        <v>47.61086349811535</v>
       </c>
       <c r="P16" t="n">
-        <v>47.61086349811538</v>
+        <v>47.61086349811535</v>
       </c>
       <c r="Q16" t="n">
-        <v>47.61086349811538</v>
+        <v>47.61086349811535</v>
       </c>
       <c r="R16" t="n">
-        <v>47.61086349811538</v>
+        <v>47.61086349811535</v>
       </c>
       <c r="S16" t="n">
-        <v>47.61086349811538</v>
+        <v>47.61086349811535</v>
       </c>
       <c r="T16" t="n">
-        <v>47.61086349811538</v>
+        <v>47.61086349811535</v>
       </c>
       <c r="U16" t="n">
-        <v>47.61086349811538</v>
+        <v>47.61086349811535</v>
       </c>
       <c r="V16" t="n">
-        <v>47.61086349811538</v>
+        <v>47.61086349811535</v>
       </c>
       <c r="W16" t="n">
-        <v>47.61086349811538</v>
+        <v>47.61086349811535</v>
       </c>
       <c r="X16" t="n">
-        <v>47.61086349811538</v>
+        <v>47.61086349811535</v>
       </c>
       <c r="Y16" t="n">
-        <v>47.61086349811538</v>
+        <v>47.61086349811535</v>
       </c>
     </row>
     <row r="17">
@@ -28561,25 +28561,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>47.61086349811536</v>
+        <v>47.61086349811533</v>
       </c>
       <c r="C17" t="n">
-        <v>47.61086349811536</v>
+        <v>47.61086349811533</v>
       </c>
       <c r="D17" t="n">
-        <v>47.61086349811536</v>
+        <v>47.61086349811533</v>
       </c>
       <c r="E17" t="n">
-        <v>47.61086349811536</v>
+        <v>47.61086349811533</v>
       </c>
       <c r="F17" t="n">
-        <v>47.61086349811536</v>
+        <v>47.61086349811533</v>
       </c>
       <c r="G17" t="n">
-        <v>47.61086349811536</v>
+        <v>47.61086349811533</v>
       </c>
       <c r="H17" t="n">
-        <v>47.61086349811536</v>
+        <v>47.61086349811533</v>
       </c>
       <c r="I17" t="n">
         <v>42.78494226402603</v>
@@ -28612,25 +28612,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>47.61086349811536</v>
+        <v>47.61086349811533</v>
       </c>
       <c r="T17" t="n">
-        <v>47.61086349811536</v>
+        <v>47.61086349811533</v>
       </c>
       <c r="U17" t="n">
-        <v>47.61086349811536</v>
+        <v>47.61086349811533</v>
       </c>
       <c r="V17" t="n">
-        <v>47.61086349811536</v>
+        <v>47.61086349811533</v>
       </c>
       <c r="W17" t="n">
-        <v>47.61086349811536</v>
+        <v>47.61086349811533</v>
       </c>
       <c r="X17" t="n">
-        <v>47.61086349811536</v>
+        <v>47.61086349811533</v>
       </c>
       <c r="Y17" t="n">
-        <v>47.61086349811536</v>
+        <v>47.61086349811533</v>
       </c>
     </row>
     <row r="18">
@@ -28719,76 +28719,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>47.61086349811536</v>
+        <v>47.61086349811533</v>
       </c>
       <c r="C19" t="n">
-        <v>47.61086349811536</v>
+        <v>47.61086349811533</v>
       </c>
       <c r="D19" t="n">
-        <v>47.61086349811536</v>
+        <v>47.61086349811533</v>
       </c>
       <c r="E19" t="n">
-        <v>47.61086349811536</v>
+        <v>47.61086349811533</v>
       </c>
       <c r="F19" t="n">
-        <v>47.61086349811536</v>
+        <v>47.61086349811533</v>
       </c>
       <c r="G19" t="n">
-        <v>47.61086349811536</v>
+        <v>47.61086349811533</v>
       </c>
       <c r="H19" t="n">
-        <v>47.61086349811536</v>
+        <v>47.61086349811533</v>
       </c>
       <c r="I19" t="n">
-        <v>47.61086349811536</v>
+        <v>47.61086349811533</v>
       </c>
       <c r="J19" t="n">
-        <v>47.61086349811536</v>
+        <v>47.61086349811533</v>
       </c>
       <c r="K19" t="n">
-        <v>47.61086349811536</v>
+        <v>47.61086349811533</v>
       </c>
       <c r="L19" t="n">
-        <v>47.61086349811536</v>
+        <v>47.61086349811533</v>
       </c>
       <c r="M19" t="n">
-        <v>47.61086349811536</v>
+        <v>47.61086349811586</v>
       </c>
       <c r="N19" t="n">
-        <v>47.61086349811536</v>
+        <v>47.61086349811533</v>
       </c>
       <c r="O19" t="n">
-        <v>47.61086349811536</v>
+        <v>47.61086349811533</v>
       </c>
       <c r="P19" t="n">
-        <v>47.61086349811536</v>
+        <v>47.61086349811533</v>
       </c>
       <c r="Q19" t="n">
-        <v>47.61086349811536</v>
+        <v>47.61086349811533</v>
       </c>
       <c r="R19" t="n">
-        <v>47.61086349811536</v>
+        <v>47.61086349811533</v>
       </c>
       <c r="S19" t="n">
-        <v>47.61086349811536</v>
+        <v>47.61086349811533</v>
       </c>
       <c r="T19" t="n">
-        <v>47.61086349811536</v>
+        <v>47.61086349811533</v>
       </c>
       <c r="U19" t="n">
-        <v>47.61086349811536</v>
+        <v>47.61086349811533</v>
       </c>
       <c r="V19" t="n">
-        <v>47.61086349811536</v>
+        <v>47.61086349811533</v>
       </c>
       <c r="W19" t="n">
-        <v>47.61086349811536</v>
+        <v>47.61086349811533</v>
       </c>
       <c r="X19" t="n">
-        <v>47.61086349811536</v>
+        <v>47.61086349811533</v>
       </c>
       <c r="Y19" t="n">
-        <v>47.61086349811536</v>
+        <v>47.61086349811533</v>
       </c>
     </row>
     <row r="20">
@@ -28798,25 +28798,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>47.61086349811538</v>
+        <v>47.61086349811533</v>
       </c>
       <c r="C20" t="n">
-        <v>47.61086349811538</v>
+        <v>47.61086349811533</v>
       </c>
       <c r="D20" t="n">
-        <v>47.61086349811538</v>
+        <v>47.61086349811533</v>
       </c>
       <c r="E20" t="n">
-        <v>47.61086349811538</v>
+        <v>47.61086349811533</v>
       </c>
       <c r="F20" t="n">
-        <v>47.61086349811538</v>
+        <v>47.61086349811533</v>
       </c>
       <c r="G20" t="n">
-        <v>47.61086349811538</v>
+        <v>47.61086349811533</v>
       </c>
       <c r="H20" t="n">
-        <v>47.61086349811538</v>
+        <v>47.61086349811533</v>
       </c>
       <c r="I20" t="n">
         <v>42.78494226402603</v>
@@ -28849,25 +28849,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>47.61086349811538</v>
+        <v>47.61086349811533</v>
       </c>
       <c r="T20" t="n">
-        <v>47.61086349811538</v>
+        <v>47.61086349811533</v>
       </c>
       <c r="U20" t="n">
-        <v>47.61086349811538</v>
+        <v>47.61086349811533</v>
       </c>
       <c r="V20" t="n">
-        <v>47.61086349811538</v>
+        <v>47.61086349811533</v>
       </c>
       <c r="W20" t="n">
-        <v>47.61086349811538</v>
+        <v>47.61086349811533</v>
       </c>
       <c r="X20" t="n">
-        <v>47.61086349811538</v>
+        <v>47.61086349811533</v>
       </c>
       <c r="Y20" t="n">
-        <v>47.61086349811538</v>
+        <v>47.61086349811533</v>
       </c>
     </row>
     <row r="21">
@@ -28956,76 +28956,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>47.61086349811538</v>
+        <v>47.61086349811533</v>
       </c>
       <c r="C22" t="n">
-        <v>47.61086349811538</v>
+        <v>47.61086349811533</v>
       </c>
       <c r="D22" t="n">
-        <v>47.61086349811538</v>
+        <v>47.61086349811533</v>
       </c>
       <c r="E22" t="n">
-        <v>47.61086349811538</v>
+        <v>47.61086349811533</v>
       </c>
       <c r="F22" t="n">
-        <v>47.61086349811538</v>
+        <v>47.61086349811533</v>
       </c>
       <c r="G22" t="n">
-        <v>47.61086349811538</v>
+        <v>47.61086349811533</v>
       </c>
       <c r="H22" t="n">
-        <v>47.61086349811538</v>
+        <v>47.61086349811533</v>
       </c>
       <c r="I22" t="n">
-        <v>47.61086349811538</v>
+        <v>47.61086349811533</v>
       </c>
       <c r="J22" t="n">
-        <v>47.61086349811538</v>
+        <v>47.61086349811533</v>
       </c>
       <c r="K22" t="n">
-        <v>47.61086349811538</v>
+        <v>47.61086349811533</v>
       </c>
       <c r="L22" t="n">
-        <v>47.61086349811538</v>
+        <v>47.61086349811533</v>
       </c>
       <c r="M22" t="n">
-        <v>47.61086349811421</v>
+        <v>47.61086349811533</v>
       </c>
       <c r="N22" t="n">
-        <v>47.61086349811538</v>
+        <v>47.61086349811533</v>
       </c>
       <c r="O22" t="n">
-        <v>47.61086349811538</v>
+        <v>47.61086349811533</v>
       </c>
       <c r="P22" t="n">
-        <v>47.61086349811538</v>
+        <v>47.61086349811533</v>
       </c>
       <c r="Q22" t="n">
-        <v>47.61086349811538</v>
+        <v>47.61086349811533</v>
       </c>
       <c r="R22" t="n">
-        <v>47.61086349811538</v>
+        <v>47.61086349811533</v>
       </c>
       <c r="S22" t="n">
-        <v>47.61086349811538</v>
+        <v>47.61086349811533</v>
       </c>
       <c r="T22" t="n">
-        <v>47.61086349811538</v>
+        <v>47.61086349811533</v>
       </c>
       <c r="U22" t="n">
-        <v>47.61086349811538</v>
+        <v>47.61086349811533</v>
       </c>
       <c r="V22" t="n">
-        <v>47.61086349811538</v>
+        <v>47.61086349811533</v>
       </c>
       <c r="W22" t="n">
-        <v>47.61086349811538</v>
+        <v>47.61086349811533</v>
       </c>
       <c r="X22" t="n">
-        <v>47.61086349811538</v>
+        <v>47.61086349811533</v>
       </c>
       <c r="Y22" t="n">
-        <v>47.61086349811538</v>
+        <v>47.61086349811533</v>
       </c>
     </row>
     <row r="23">
@@ -29035,25 +29035,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>47.61086349811538</v>
+        <v>47.61086349811533</v>
       </c>
       <c r="C23" t="n">
-        <v>47.61086349811538</v>
+        <v>47.61086349811533</v>
       </c>
       <c r="D23" t="n">
-        <v>47.61086349811538</v>
+        <v>47.61086349811533</v>
       </c>
       <c r="E23" t="n">
-        <v>47.61086349811538</v>
+        <v>47.61086349811533</v>
       </c>
       <c r="F23" t="n">
-        <v>47.61086349811538</v>
+        <v>47.61086349811533</v>
       </c>
       <c r="G23" t="n">
-        <v>47.61086349811538</v>
+        <v>47.61086349811533</v>
       </c>
       <c r="H23" t="n">
-        <v>47.61086349811538</v>
+        <v>47.61086349811533</v>
       </c>
       <c r="I23" t="n">
         <v>42.78494226402603</v>
@@ -29086,25 +29086,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>47.61086349811538</v>
+        <v>47.61086349811533</v>
       </c>
       <c r="T23" t="n">
-        <v>47.61086349811538</v>
+        <v>47.61086349811533</v>
       </c>
       <c r="U23" t="n">
-        <v>47.61086349811538</v>
+        <v>47.61086349811533</v>
       </c>
       <c r="V23" t="n">
-        <v>47.61086349811538</v>
+        <v>47.61086349811533</v>
       </c>
       <c r="W23" t="n">
-        <v>47.61086349811538</v>
+        <v>47.61086349811533</v>
       </c>
       <c r="X23" t="n">
-        <v>47.61086349811538</v>
+        <v>47.61086349811533</v>
       </c>
       <c r="Y23" t="n">
-        <v>47.61086349811538</v>
+        <v>47.61086349811533</v>
       </c>
     </row>
     <row r="24">
@@ -29193,76 +29193,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>47.61086349811538</v>
+        <v>47.61086349811533</v>
       </c>
       <c r="C25" t="n">
-        <v>47.61086349811538</v>
+        <v>47.61086349811533</v>
       </c>
       <c r="D25" t="n">
-        <v>47.61086349811538</v>
+        <v>47.61086349811533</v>
       </c>
       <c r="E25" t="n">
-        <v>47.61086349811538</v>
+        <v>47.61086349811533</v>
       </c>
       <c r="F25" t="n">
-        <v>47.61086349811538</v>
+        <v>47.61086349811533</v>
       </c>
       <c r="G25" t="n">
-        <v>47.61086349811538</v>
+        <v>47.61086349811533</v>
       </c>
       <c r="H25" t="n">
-        <v>47.61086349811538</v>
+        <v>47.61086349811533</v>
       </c>
       <c r="I25" t="n">
-        <v>47.61086349811538</v>
+        <v>47.61086349811533</v>
       </c>
       <c r="J25" t="n">
-        <v>47.61086349811538</v>
+        <v>47.61086349811533</v>
       </c>
       <c r="K25" t="n">
-        <v>47.61086349811433</v>
+        <v>47.61086349811533</v>
       </c>
       <c r="L25" t="n">
-        <v>47.61086349811538</v>
+        <v>47.61086349811533</v>
       </c>
       <c r="M25" t="n">
-        <v>47.61086349811538</v>
+        <v>47.61086349811533</v>
       </c>
       <c r="N25" t="n">
-        <v>47.61086349811538</v>
+        <v>47.61086349811533</v>
       </c>
       <c r="O25" t="n">
-        <v>47.61086349811538</v>
+        <v>47.61086349811533</v>
       </c>
       <c r="P25" t="n">
-        <v>47.61086349811538</v>
+        <v>47.61086349811533</v>
       </c>
       <c r="Q25" t="n">
-        <v>47.61086349811538</v>
+        <v>47.61086349811533</v>
       </c>
       <c r="R25" t="n">
-        <v>47.61086349811538</v>
+        <v>47.61086349811533</v>
       </c>
       <c r="S25" t="n">
-        <v>47.61086349811538</v>
+        <v>47.61086349811533</v>
       </c>
       <c r="T25" t="n">
-        <v>47.61086349811538</v>
+        <v>47.61086349811533</v>
       </c>
       <c r="U25" t="n">
-        <v>47.61086349811538</v>
+        <v>47.61086349811533</v>
       </c>
       <c r="V25" t="n">
-        <v>47.61086349811538</v>
+        <v>47.61086349811533</v>
       </c>
       <c r="W25" t="n">
-        <v>47.61086349811538</v>
+        <v>47.61086349811533</v>
       </c>
       <c r="X25" t="n">
-        <v>47.61086349811538</v>
+        <v>47.61086349811533</v>
       </c>
       <c r="Y25" t="n">
-        <v>47.61086349811538</v>
+        <v>47.61086349811533</v>
       </c>
     </row>
     <row r="26">
@@ -29983,25 +29983,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>47.61086349811537</v>
+        <v>47.61086349811536</v>
       </c>
       <c r="C35" t="n">
-        <v>47.61086349811537</v>
+        <v>47.61086349811536</v>
       </c>
       <c r="D35" t="n">
-        <v>47.61086349811537</v>
+        <v>47.61086349811536</v>
       </c>
       <c r="E35" t="n">
-        <v>47.61086349811537</v>
+        <v>47.61086349811536</v>
       </c>
       <c r="F35" t="n">
-        <v>47.61086349811537</v>
+        <v>47.61086349811536</v>
       </c>
       <c r="G35" t="n">
-        <v>47.61086349811537</v>
+        <v>47.61086349811536</v>
       </c>
       <c r="H35" t="n">
-        <v>47.61086349811537</v>
+        <v>47.61086349811536</v>
       </c>
       <c r="I35" t="n">
         <v>42.78494226402603</v>
@@ -30034,25 +30034,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>47.61086349811537</v>
+        <v>47.61086349811536</v>
       </c>
       <c r="T35" t="n">
-        <v>47.61086349811537</v>
+        <v>47.61086349811536</v>
       </c>
       <c r="U35" t="n">
-        <v>47.61086349811537</v>
+        <v>47.61086349811536</v>
       </c>
       <c r="V35" t="n">
-        <v>47.61086349811537</v>
+        <v>47.61086349811536</v>
       </c>
       <c r="W35" t="n">
-        <v>47.61086349811537</v>
+        <v>47.61086349811536</v>
       </c>
       <c r="X35" t="n">
-        <v>47.61086349811537</v>
+        <v>47.61086349811536</v>
       </c>
       <c r="Y35" t="n">
-        <v>47.61086349811537</v>
+        <v>47.61086349811536</v>
       </c>
     </row>
     <row r="36">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>47.61086349811537</v>
+        <v>47.61086349811536</v>
       </c>
       <c r="C37" t="n">
-        <v>47.61086349811537</v>
+        <v>47.61086349811536</v>
       </c>
       <c r="D37" t="n">
-        <v>47.61086349811537</v>
+        <v>47.61086349811536</v>
       </c>
       <c r="E37" t="n">
-        <v>47.61086349811537</v>
+        <v>47.61086349811536</v>
       </c>
       <c r="F37" t="n">
-        <v>47.61086349811537</v>
+        <v>47.61086349811536</v>
       </c>
       <c r="G37" t="n">
-        <v>47.61086349811537</v>
+        <v>47.61086349811536</v>
       </c>
       <c r="H37" t="n">
-        <v>47.61086349811537</v>
+        <v>47.61086349811536</v>
       </c>
       <c r="I37" t="n">
-        <v>47.61086349811537</v>
+        <v>47.61086349811536</v>
       </c>
       <c r="J37" t="n">
-        <v>47.61086349811537</v>
+        <v>47.61086349811536</v>
       </c>
       <c r="K37" t="n">
-        <v>47.61086349811537</v>
+        <v>47.61086349811536</v>
       </c>
       <c r="L37" t="n">
-        <v>47.61086349811537</v>
+        <v>47.61086349811536</v>
       </c>
       <c r="M37" t="n">
-        <v>47.61086349811537</v>
+        <v>47.61086349811536</v>
       </c>
       <c r="N37" t="n">
-        <v>47.61086349811537</v>
+        <v>47.61086349811536</v>
       </c>
       <c r="O37" t="n">
-        <v>47.61086349811537</v>
+        <v>47.61086349811536</v>
       </c>
       <c r="P37" t="n">
-        <v>47.61086349811537</v>
+        <v>47.61086349811536</v>
       </c>
       <c r="Q37" t="n">
-        <v>47.61086349811537</v>
+        <v>47.61086349811536</v>
       </c>
       <c r="R37" t="n">
-        <v>47.61086349811537</v>
+        <v>47.61086349811536</v>
       </c>
       <c r="S37" t="n">
-        <v>47.61086349811537</v>
+        <v>47.61086349811536</v>
       </c>
       <c r="T37" t="n">
-        <v>47.61086349811537</v>
+        <v>47.61086349811536</v>
       </c>
       <c r="U37" t="n">
-        <v>47.61086349811537</v>
+        <v>47.61086349811536</v>
       </c>
       <c r="V37" t="n">
-        <v>47.61086349811537</v>
+        <v>47.61086349811536</v>
       </c>
       <c r="W37" t="n">
-        <v>47.61086349811537</v>
+        <v>47.61086349811536</v>
       </c>
       <c r="X37" t="n">
-        <v>47.61086349811537</v>
+        <v>47.61086349811536</v>
       </c>
       <c r="Y37" t="n">
-        <v>47.61086349811537</v>
+        <v>47.61086349811536</v>
       </c>
     </row>
     <row r="38">
@@ -30220,25 +30220,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>47.61086349811538</v>
+        <v>47.61086349811536</v>
       </c>
       <c r="C38" t="n">
-        <v>47.61086349811538</v>
+        <v>47.61086349811536</v>
       </c>
       <c r="D38" t="n">
-        <v>47.61086349811538</v>
+        <v>47.61086349811536</v>
       </c>
       <c r="E38" t="n">
-        <v>47.61086349811538</v>
+        <v>47.61086349811536</v>
       </c>
       <c r="F38" t="n">
-        <v>47.61086349811538</v>
+        <v>47.61086349811536</v>
       </c>
       <c r="G38" t="n">
-        <v>47.61086349811538</v>
+        <v>47.61086349811536</v>
       </c>
       <c r="H38" t="n">
-        <v>47.61086349811538</v>
+        <v>47.61086349811536</v>
       </c>
       <c r="I38" t="n">
         <v>42.78494226402603</v>
@@ -30271,25 +30271,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>47.61086349811538</v>
+        <v>47.61086349811536</v>
       </c>
       <c r="T38" t="n">
-        <v>47.61086349811538</v>
+        <v>47.61086349811536</v>
       </c>
       <c r="U38" t="n">
-        <v>47.61086349811538</v>
+        <v>47.61086349811536</v>
       </c>
       <c r="V38" t="n">
-        <v>47.61086349811538</v>
+        <v>47.61086349811536</v>
       </c>
       <c r="W38" t="n">
-        <v>47.61086349811538</v>
+        <v>47.61086349811536</v>
       </c>
       <c r="X38" t="n">
-        <v>47.61086349811538</v>
+        <v>47.61086349811536</v>
       </c>
       <c r="Y38" t="n">
-        <v>47.61086349811538</v>
+        <v>47.61086349811536</v>
       </c>
     </row>
     <row r="39">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>47.61086349811538</v>
+        <v>47.61086349811536</v>
       </c>
       <c r="C40" t="n">
-        <v>47.61086349811538</v>
+        <v>47.61086349811536</v>
       </c>
       <c r="D40" t="n">
-        <v>47.61086349811538</v>
+        <v>47.61086349811536</v>
       </c>
       <c r="E40" t="n">
-        <v>47.61086349811538</v>
+        <v>47.61086349811536</v>
       </c>
       <c r="F40" t="n">
-        <v>47.61086349811538</v>
+        <v>47.61086349811536</v>
       </c>
       <c r="G40" t="n">
-        <v>47.61086349811538</v>
+        <v>47.61086349811536</v>
       </c>
       <c r="H40" t="n">
-        <v>47.61086349811538</v>
+        <v>47.61086349811536</v>
       </c>
       <c r="I40" t="n">
-        <v>47.61086349811538</v>
+        <v>47.61086349811536</v>
       </c>
       <c r="J40" t="n">
-        <v>47.61086349811538</v>
+        <v>47.61086349811536</v>
       </c>
       <c r="K40" t="n">
-        <v>47.61086349811538</v>
+        <v>47.61086349811536</v>
       </c>
       <c r="L40" t="n">
-        <v>47.61086349811538</v>
+        <v>47.61086349811536</v>
       </c>
       <c r="M40" t="n">
-        <v>47.61086349811538</v>
+        <v>47.61086349811495</v>
       </c>
       <c r="N40" t="n">
-        <v>47.61086349811538</v>
+        <v>47.61086349811536</v>
       </c>
       <c r="O40" t="n">
-        <v>47.61086349811538</v>
+        <v>47.61086349811536</v>
       </c>
       <c r="P40" t="n">
-        <v>47.6108634981143</v>
+        <v>47.61086349811536</v>
       </c>
       <c r="Q40" t="n">
-        <v>47.61086349811538</v>
+        <v>47.61086349811536</v>
       </c>
       <c r="R40" t="n">
-        <v>47.61086349811538</v>
+        <v>47.61086349811536</v>
       </c>
       <c r="S40" t="n">
-        <v>47.61086349811538</v>
+        <v>47.61086349811536</v>
       </c>
       <c r="T40" t="n">
-        <v>47.61086349811538</v>
+        <v>47.61086349811536</v>
       </c>
       <c r="U40" t="n">
-        <v>47.61086349811538</v>
+        <v>47.61086349811536</v>
       </c>
       <c r="V40" t="n">
-        <v>47.61086349811538</v>
+        <v>47.61086349811536</v>
       </c>
       <c r="W40" t="n">
-        <v>47.61086349811538</v>
+        <v>47.61086349811536</v>
       </c>
       <c r="X40" t="n">
-        <v>47.61086349811538</v>
+        <v>47.61086349811536</v>
       </c>
       <c r="Y40" t="n">
-        <v>47.61086349811538</v>
+        <v>47.61086349811536</v>
       </c>
     </row>
     <row r="41">
@@ -30457,25 +30457,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>47.61086349811538</v>
+        <v>47.61086349811531</v>
       </c>
       <c r="C41" t="n">
-        <v>47.61086349811538</v>
+        <v>47.61086349811531</v>
       </c>
       <c r="D41" t="n">
-        <v>47.61086349811538</v>
+        <v>47.61086349811531</v>
       </c>
       <c r="E41" t="n">
-        <v>47.61086349811538</v>
+        <v>47.61086349811531</v>
       </c>
       <c r="F41" t="n">
-        <v>47.61086349811538</v>
+        <v>47.61086349811531</v>
       </c>
       <c r="G41" t="n">
-        <v>47.61086349811538</v>
+        <v>47.61086349811531</v>
       </c>
       <c r="H41" t="n">
-        <v>47.61086349811538</v>
+        <v>47.61086349811531</v>
       </c>
       <c r="I41" t="n">
         <v>42.78494226402603</v>
@@ -30508,25 +30508,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>47.61086349811538</v>
+        <v>47.61086349811531</v>
       </c>
       <c r="T41" t="n">
-        <v>47.61086349811538</v>
+        <v>47.61086349811531</v>
       </c>
       <c r="U41" t="n">
-        <v>47.61086349811538</v>
+        <v>47.61086349811531</v>
       </c>
       <c r="V41" t="n">
-        <v>47.61086349811538</v>
+        <v>47.61086349811531</v>
       </c>
       <c r="W41" t="n">
-        <v>47.61086349811538</v>
+        <v>47.61086349811531</v>
       </c>
       <c r="X41" t="n">
-        <v>47.61086349811538</v>
+        <v>47.61086349811531</v>
       </c>
       <c r="Y41" t="n">
-        <v>47.61086349811538</v>
+        <v>47.61086349811531</v>
       </c>
     </row>
     <row r="42">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>47.61086349811538</v>
+        <v>47.61086349811531</v>
       </c>
       <c r="C43" t="n">
-        <v>47.61086349811538</v>
+        <v>47.61086349811531</v>
       </c>
       <c r="D43" t="n">
-        <v>47.61086349811538</v>
+        <v>47.61086349811531</v>
       </c>
       <c r="E43" t="n">
-        <v>47.61086349811538</v>
+        <v>47.61086349811531</v>
       </c>
       <c r="F43" t="n">
-        <v>47.61086349811538</v>
+        <v>47.61086349811531</v>
       </c>
       <c r="G43" t="n">
-        <v>47.61086349811538</v>
+        <v>47.61086349811531</v>
       </c>
       <c r="H43" t="n">
-        <v>47.61086349811538</v>
+        <v>47.61086349811531</v>
       </c>
       <c r="I43" t="n">
-        <v>47.61086349811538</v>
+        <v>47.61086349811531</v>
       </c>
       <c r="J43" t="n">
-        <v>47.61086349811538</v>
+        <v>47.61086349811531</v>
       </c>
       <c r="K43" t="n">
-        <v>47.61086349811538</v>
+        <v>47.61086349811531</v>
       </c>
       <c r="L43" t="n">
-        <v>47.61086349811538</v>
+        <v>47.61086349811531</v>
       </c>
       <c r="M43" t="n">
-        <v>47.61086349811538</v>
+        <v>47.61086349811531</v>
       </c>
       <c r="N43" t="n">
-        <v>47.61086349811538</v>
+        <v>47.61086349811531</v>
       </c>
       <c r="O43" t="n">
-        <v>47.61086349811538</v>
+        <v>47.61086349811531</v>
       </c>
       <c r="P43" t="n">
-        <v>47.61086349811538</v>
+        <v>47.61086349811531</v>
       </c>
       <c r="Q43" t="n">
-        <v>47.61086349811538</v>
+        <v>47.61086349811531</v>
       </c>
       <c r="R43" t="n">
-        <v>47.61086349811538</v>
+        <v>47.61086349811531</v>
       </c>
       <c r="S43" t="n">
-        <v>47.61086349811538</v>
+        <v>47.61086349811531</v>
       </c>
       <c r="T43" t="n">
-        <v>47.61086349811538</v>
+        <v>47.61086349811531</v>
       </c>
       <c r="U43" t="n">
-        <v>47.61086349811538</v>
+        <v>47.61086349811531</v>
       </c>
       <c r="V43" t="n">
-        <v>47.61086349811538</v>
+        <v>47.61086349811531</v>
       </c>
       <c r="W43" t="n">
-        <v>47.61086349811538</v>
+        <v>47.61086349811531</v>
       </c>
       <c r="X43" t="n">
-        <v>47.61086349811538</v>
+        <v>47.61086349811531</v>
       </c>
       <c r="Y43" t="n">
-        <v>47.61086349811538</v>
+        <v>47.61086349811531</v>
       </c>
     </row>
     <row r="44">
@@ -30694,25 +30694,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>47.61086349811538</v>
+        <v>47.61086349811534</v>
       </c>
       <c r="C44" t="n">
-        <v>47.61086349811538</v>
+        <v>47.61086349811534</v>
       </c>
       <c r="D44" t="n">
-        <v>47.61086349811538</v>
+        <v>47.61086349811534</v>
       </c>
       <c r="E44" t="n">
-        <v>47.61086349811538</v>
+        <v>47.61086349811534</v>
       </c>
       <c r="F44" t="n">
-        <v>47.61086349811538</v>
+        <v>47.61086349811534</v>
       </c>
       <c r="G44" t="n">
-        <v>47.61086349811538</v>
+        <v>47.61086349811534</v>
       </c>
       <c r="H44" t="n">
-        <v>47.61086349811538</v>
+        <v>47.61086349811534</v>
       </c>
       <c r="I44" t="n">
         <v>42.78494226402603</v>
@@ -30745,25 +30745,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>47.61086349811538</v>
+        <v>47.61086349811534</v>
       </c>
       <c r="T44" t="n">
-        <v>47.61086349811538</v>
+        <v>47.61086349811534</v>
       </c>
       <c r="U44" t="n">
-        <v>47.61086349811538</v>
+        <v>47.61086349811534</v>
       </c>
       <c r="V44" t="n">
-        <v>47.61086349811538</v>
+        <v>47.61086349811534</v>
       </c>
       <c r="W44" t="n">
-        <v>47.61086349811538</v>
+        <v>47.61086349811534</v>
       </c>
       <c r="X44" t="n">
-        <v>47.61086349811538</v>
+        <v>47.61086349811534</v>
       </c>
       <c r="Y44" t="n">
-        <v>47.61086349811538</v>
+        <v>47.61086349811534</v>
       </c>
     </row>
     <row r="45">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>47.61086349811538</v>
+        <v>47.61086349811534</v>
       </c>
       <c r="C46" t="n">
-        <v>47.61086349811538</v>
+        <v>47.61086349811534</v>
       </c>
       <c r="D46" t="n">
-        <v>47.61086349811538</v>
+        <v>47.61086349811534</v>
       </c>
       <c r="E46" t="n">
-        <v>47.61086349811538</v>
+        <v>47.61086349811534</v>
       </c>
       <c r="F46" t="n">
-        <v>47.61086349811538</v>
+        <v>47.61086349811534</v>
       </c>
       <c r="G46" t="n">
-        <v>47.61086349811538</v>
+        <v>47.61086349811534</v>
       </c>
       <c r="H46" t="n">
-        <v>47.61086349811538</v>
+        <v>47.61086349811534</v>
       </c>
       <c r="I46" t="n">
-        <v>47.61086349811538</v>
+        <v>47.61086349811534</v>
       </c>
       <c r="J46" t="n">
-        <v>47.61086349811538</v>
+        <v>47.61086349811553</v>
       </c>
       <c r="K46" t="n">
-        <v>47.61086349811538</v>
+        <v>47.61086349811534</v>
       </c>
       <c r="L46" t="n">
-        <v>47.61086349811538</v>
+        <v>47.61086349811534</v>
       </c>
       <c r="M46" t="n">
-        <v>47.61086349811538</v>
+        <v>47.61086349811534</v>
       </c>
       <c r="N46" t="n">
-        <v>47.61086349811538</v>
+        <v>47.61086349811534</v>
       </c>
       <c r="O46" t="n">
-        <v>47.61086349811538</v>
+        <v>47.61086349811534</v>
       </c>
       <c r="P46" t="n">
-        <v>47.61086349811538</v>
+        <v>47.61086349811534</v>
       </c>
       <c r="Q46" t="n">
-        <v>47.61086349811538</v>
+        <v>47.61086349811534</v>
       </c>
       <c r="R46" t="n">
-        <v>47.61086349811538</v>
+        <v>47.61086349811534</v>
       </c>
       <c r="S46" t="n">
-        <v>47.61086349811538</v>
+        <v>47.61086349811534</v>
       </c>
       <c r="T46" t="n">
-        <v>47.61086349811538</v>
+        <v>47.61086349811534</v>
       </c>
       <c r="U46" t="n">
-        <v>47.61086349811538</v>
+        <v>47.61086349811534</v>
       </c>
       <c r="V46" t="n">
-        <v>47.61086349811538</v>
+        <v>47.61086349811534</v>
       </c>
       <c r="W46" t="n">
-        <v>47.61086349811538</v>
+        <v>47.61086349811534</v>
       </c>
       <c r="X46" t="n">
-        <v>47.61086349811538</v>
+        <v>47.61086349811534</v>
       </c>
       <c r="Y46" t="n">
-        <v>47.61086349811538</v>
+        <v>47.61086349811534</v>
       </c>
     </row>
   </sheetData>
@@ -34699,10 +34699,10 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="L2" t="n">
-        <v>6.876045741711437</v>
+        <v>6.598225711743296</v>
       </c>
       <c r="M2" t="n">
         <v>6.876045741711437</v>
@@ -34711,10 +34711,10 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
         <v>6.876045741711437</v>
-      </c>
-      <c r="P2" t="n">
-        <v>6.598225711743297</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -34781,19 +34781,19 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>6.598225711743296</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="P3" t="n">
-        <v>6.876045741711437</v>
+        <v>6.598225711743297</v>
       </c>
       <c r="Q3" t="n">
         <v>6.876045741711437</v>
@@ -34860,10 +34860,10 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
+        <v>6.876045741711437</v>
+      </c>
+      <c r="M4" t="n">
         <v>6.598225711743296</v>
-      </c>
-      <c r="M4" t="n">
-        <v>6.876045741711437</v>
       </c>
       <c r="N4" t="n">
         <v>6.876045741711437</v>
@@ -34942,16 +34942,16 @@
         <v>6.876045741711437</v>
       </c>
       <c r="M5" t="n">
+        <v>6.598225711743296</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
         <v>6.876045741711437</v>
       </c>
-      <c r="N5" t="n">
+      <c r="P5" t="n">
         <v>6.876045741711437</v>
-      </c>
-      <c r="O5" t="n">
-        <v>6.598225711743297</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
@@ -35018,10 +35018,10 @@
         <v>6.876045741711437</v>
       </c>
       <c r="L6" t="n">
+        <v>6.598225711743296</v>
+      </c>
+      <c r="M6" t="n">
         <v>6.876045741711437</v>
-      </c>
-      <c r="M6" t="n">
-        <v>6.598225711743297</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
@@ -35173,19 +35173,19 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="L8" t="n">
-        <v>15.30273751513505</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
         <v>15.30273751513505</v>
       </c>
       <c r="N8" t="n">
+        <v>15.30273751513505</v>
+      </c>
+      <c r="O8" t="n">
         <v>14.68444509028111</v>
-      </c>
-      <c r="O8" t="n">
-        <v>15.30273751513505</v>
       </c>
       <c r="P8" t="n">
         <v>0</v>
@@ -35407,7 +35407,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>188.1275482700158</v>
+        <v>357.2241634420896</v>
       </c>
       <c r="K11" t="n">
         <v>333.2054563520473</v>
@@ -35416,7 +35416,7 @@
         <v>450.6453395738567</v>
       </c>
       <c r="M11" t="n">
-        <v>776.6902898960033</v>
+        <v>533.419101088566</v>
       </c>
       <c r="N11" t="n">
         <v>546.7107923205513</v>
@@ -35428,7 +35428,7 @@
         <v>394.2560863105253</v>
       </c>
       <c r="Q11" t="n">
-        <v>247.4105616249819</v>
+        <v>321.5851352603465</v>
       </c>
       <c r="R11" t="n">
         <v>57.64490038661711</v>
@@ -35501,13 +35501,13 @@
         <v>473.9457332955739</v>
       </c>
       <c r="O12" t="n">
-        <v>427.6755090520044</v>
+        <v>411.1235155762907</v>
       </c>
       <c r="P12" t="n">
         <v>310.4345167986727</v>
       </c>
       <c r="Q12" t="n">
-        <v>157.0938226408662</v>
+        <v>173.64581611658</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35574,10 +35574,10 @@
         <v>365.2785732749991</v>
       </c>
       <c r="M13" t="n">
-        <v>393.0409868901366</v>
+        <v>393.0409868901367</v>
       </c>
       <c r="N13" t="n">
-        <v>390.3169421673883</v>
+        <v>390.3169421673884</v>
       </c>
       <c r="O13" t="n">
         <v>347.9773194581129</v>
@@ -35644,7 +35644,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>219.0837464175484</v>
+        <v>188.1275482700158</v>
       </c>
       <c r="K14" t="n">
         <v>333.2054563520473</v>
@@ -35656,7 +35656,7 @@
         <v>533.419101088566</v>
       </c>
       <c r="N14" t="n">
-        <v>546.7107923205513</v>
+        <v>789.9819811279899</v>
       </c>
       <c r="O14" t="n">
         <v>502.7735374394198</v>
@@ -35665,7 +35665,7 @@
         <v>394.2560863105253</v>
       </c>
       <c r="Q14" t="n">
-        <v>459.7255522848865</v>
+        <v>247.4105616249819</v>
       </c>
       <c r="R14" t="n">
         <v>57.64490038661711</v>
@@ -35729,7 +35729,7 @@
         <v>237.9636821324931</v>
       </c>
       <c r="L15" t="n">
-        <v>383.3139762564695</v>
+        <v>383.3139762564694</v>
       </c>
       <c r="M15" t="n">
         <v>447.546326953198</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>92.19555964934929</v>
+        <v>92.19555964934926</v>
       </c>
       <c r="K16" t="n">
         <v>252.0255350647807</v>
@@ -35811,13 +35811,13 @@
         <v>365.2785732749991</v>
       </c>
       <c r="M16" t="n">
-        <v>393.0409868901367</v>
+        <v>393.0409868901366</v>
       </c>
       <c r="N16" t="n">
         <v>390.3169421673883</v>
       </c>
       <c r="O16" t="n">
-        <v>347.9773194581129</v>
+        <v>347.9773194581128</v>
       </c>
       <c r="P16" t="n">
         <v>280.867991602951</v>
@@ -35884,19 +35884,19 @@
         <v>357.2241634420896</v>
       </c>
       <c r="K17" t="n">
-        <v>333.2054563520473</v>
+        <v>657.350868923212</v>
       </c>
       <c r="L17" t="n">
         <v>450.6453395738567</v>
       </c>
       <c r="M17" t="n">
-        <v>982.9326345813985</v>
+        <v>794.4958395044491</v>
       </c>
       <c r="N17" t="n">
         <v>546.7107923205513</v>
       </c>
       <c r="O17" t="n">
-        <v>572.7657350606514</v>
+        <v>502.7735374394198</v>
       </c>
       <c r="P17" t="n">
         <v>394.2560863105253</v>
@@ -35905,7 +35905,7 @@
         <v>247.4105616249819</v>
       </c>
       <c r="R17" t="n">
-        <v>123.3613202595996</v>
+        <v>57.64490038661711</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,7 +35960,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>93.03955272770824</v>
+        <v>109.5915462034216</v>
       </c>
       <c r="K18" t="n">
         <v>237.9636821324931</v>
@@ -35975,7 +35975,7 @@
         <v>473.9457332955739</v>
       </c>
       <c r="O18" t="n">
-        <v>427.6755090520039</v>
+        <v>411.1235155762907</v>
       </c>
       <c r="P18" t="n">
         <v>310.4345167986727</v>
@@ -36039,7 +36039,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>92.19555964934926</v>
+        <v>92.19555964934924</v>
       </c>
       <c r="K19" t="n">
         <v>252.0255350647807</v>
@@ -36048,7 +36048,7 @@
         <v>365.2785732749991</v>
       </c>
       <c r="M19" t="n">
-        <v>393.0409868901366</v>
+        <v>393.0409868901371</v>
       </c>
       <c r="N19" t="n">
         <v>390.3169421673883</v>
@@ -36060,7 +36060,7 @@
         <v>280.867991602951</v>
       </c>
       <c r="Q19" t="n">
-        <v>124.8281495898296</v>
+        <v>124.8281495898295</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36118,10 +36118,10 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>357.2241634420896</v>
+        <v>188.1275482700158</v>
       </c>
       <c r="K20" t="n">
-        <v>333.2054563520473</v>
+        <v>384.9253330769419</v>
       </c>
       <c r="L20" t="n">
         <v>450.6453395738567</v>
@@ -36133,16 +36133,16 @@
         <v>546.7107923205513</v>
       </c>
       <c r="O20" t="n">
-        <v>502.7735374394198</v>
+        <v>883.5737187021651</v>
       </c>
       <c r="P20" t="n">
-        <v>701.4468267646853</v>
+        <v>716.054794482008</v>
       </c>
       <c r="Q20" t="n">
-        <v>459.7255522848865</v>
+        <v>247.4105616249819</v>
       </c>
       <c r="R20" t="n">
-        <v>123.3613202595996</v>
+        <v>57.64490038661711</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36206,7 +36206,7 @@
         <v>366.7619827807558</v>
       </c>
       <c r="M21" t="n">
-        <v>447.546326953198</v>
+        <v>464.0983204289114</v>
       </c>
       <c r="N21" t="n">
         <v>473.9457332955739</v>
@@ -36218,7 +36218,7 @@
         <v>310.4345167986727</v>
       </c>
       <c r="Q21" t="n">
-        <v>173.6458161165795</v>
+        <v>157.0938226408662</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,7 +36276,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>92.19555964934929</v>
+        <v>92.19555964934924</v>
       </c>
       <c r="K22" t="n">
         <v>252.0255350647807</v>
@@ -36285,19 +36285,19 @@
         <v>365.2785732749991</v>
       </c>
       <c r="M22" t="n">
-        <v>393.0409868901355</v>
+        <v>393.0409868901365</v>
       </c>
       <c r="N22" t="n">
         <v>390.3169421673883</v>
       </c>
       <c r="O22" t="n">
-        <v>347.9773194581129</v>
+        <v>347.9773194581128</v>
       </c>
       <c r="P22" t="n">
         <v>280.867991602951</v>
       </c>
       <c r="Q22" t="n">
-        <v>124.8281495898296</v>
+        <v>124.8281495898295</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36355,7 +36355,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>357.2241634420896</v>
+        <v>188.1275482700158</v>
       </c>
       <c r="K23" t="n">
         <v>333.2054563520473</v>
@@ -36367,19 +36367,19 @@
         <v>533.419101088566</v>
       </c>
       <c r="N23" t="n">
-        <v>546.7107923205513</v>
+        <v>920.2293772169285</v>
       </c>
       <c r="O23" t="n">
-        <v>502.7735374394198</v>
+        <v>883.5737187021651</v>
       </c>
       <c r="P23" t="n">
-        <v>701.4468267646853</v>
+        <v>394.2560863105253</v>
       </c>
       <c r="Q23" t="n">
-        <v>459.7255522848865</v>
+        <v>247.4105616249819</v>
       </c>
       <c r="R23" t="n">
-        <v>123.3613202595996</v>
+        <v>57.64490038661711</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36452,10 +36452,10 @@
         <v>411.1235155762907</v>
       </c>
       <c r="P24" t="n">
-        <v>326.9865102743859</v>
+        <v>310.4345167986727</v>
       </c>
       <c r="Q24" t="n">
-        <v>157.0938226408662</v>
+        <v>173.6458161165795</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,28 +36513,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>92.19555964934929</v>
+        <v>92.19555964934924</v>
       </c>
       <c r="K25" t="n">
-        <v>252.0255350647797</v>
+        <v>252.0255350647807</v>
       </c>
       <c r="L25" t="n">
         <v>365.2785732749991</v>
       </c>
       <c r="M25" t="n">
-        <v>393.0409868901367</v>
+        <v>393.0409868901365</v>
       </c>
       <c r="N25" t="n">
         <v>390.3169421673883</v>
       </c>
       <c r="O25" t="n">
-        <v>347.9773194581129</v>
+        <v>347.9773194581128</v>
       </c>
       <c r="P25" t="n">
         <v>280.867991602951</v>
       </c>
       <c r="Q25" t="n">
-        <v>124.8281495898296</v>
+        <v>124.8281495898295</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36592,22 +36592,22 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>357.2241634420896</v>
+        <v>188.1275482700158</v>
       </c>
       <c r="K26" t="n">
-        <v>657.350868923212</v>
+        <v>333.2054563520473</v>
       </c>
       <c r="L26" t="n">
-        <v>835.6314055027368</v>
+        <v>450.6453395738567</v>
       </c>
       <c r="M26" t="n">
-        <v>533.419101088566</v>
+        <v>982.9326345813985</v>
       </c>
       <c r="N26" t="n">
-        <v>546.7107923205513</v>
+        <v>660.3415911100745</v>
       </c>
       <c r="O26" t="n">
-        <v>502.7735374394198</v>
+        <v>883.5737187021651</v>
       </c>
       <c r="P26" t="n">
         <v>716.054794482008</v>
@@ -36616,7 +36616,7 @@
         <v>459.7255522848865</v>
       </c>
       <c r="R26" t="n">
-        <v>123.3613202595996</v>
+        <v>57.64490038661711</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36674,7 +36674,7 @@
         <v>93.03955272770824</v>
       </c>
       <c r="K27" t="n">
-        <v>254.5156756082065</v>
+        <v>237.9636821324931</v>
       </c>
       <c r="L27" t="n">
         <v>366.7619827807558</v>
@@ -36692,7 +36692,7 @@
         <v>310.4345167986727</v>
       </c>
       <c r="Q27" t="n">
-        <v>157.0938226408662</v>
+        <v>173.6458161165795</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36829,22 +36829,22 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>357.2241634420896</v>
+        <v>188.1275482700158</v>
       </c>
       <c r="K29" t="n">
         <v>333.2054563520473</v>
       </c>
       <c r="L29" t="n">
-        <v>450.6453395738567</v>
+        <v>510.7263275712464</v>
       </c>
       <c r="M29" t="n">
-        <v>982.9326345813985</v>
+        <v>533.419101088566</v>
       </c>
       <c r="N29" t="n">
-        <v>546.7107923205513</v>
+        <v>984.0577167325355</v>
       </c>
       <c r="O29" t="n">
-        <v>762.3914824466328</v>
+        <v>883.5737187021651</v>
       </c>
       <c r="P29" t="n">
         <v>716.054794482008</v>
@@ -36908,7 +36908,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>109.5915462034216</v>
+        <v>93.03955272770824</v>
       </c>
       <c r="K30" t="n">
         <v>237.9636821324931</v>
@@ -36926,7 +36926,7 @@
         <v>411.1235155762907</v>
       </c>
       <c r="P30" t="n">
-        <v>310.4345167986727</v>
+        <v>326.9865102743859</v>
       </c>
       <c r="Q30" t="n">
         <v>157.0938226408662</v>
@@ -37066,19 +37066,19 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>357.2241634420896</v>
+        <v>188.1275482700158</v>
       </c>
       <c r="K32" t="n">
-        <v>657.0258454758156</v>
+        <v>657.350868923212</v>
       </c>
       <c r="L32" t="n">
-        <v>868.3065541243071</v>
+        <v>450.6453395738567</v>
       </c>
       <c r="M32" t="n">
-        <v>533.419101088566</v>
+        <v>616.7885630787279</v>
       </c>
       <c r="N32" t="n">
-        <v>546.7107923205513</v>
+        <v>984.0577167325355</v>
       </c>
       <c r="O32" t="n">
         <v>502.7735374394198</v>
@@ -37090,7 +37090,7 @@
         <v>459.7255522848865</v>
       </c>
       <c r="R32" t="n">
-        <v>57.64490038661711</v>
+        <v>123.3613202595996</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37230,7 +37230,7 @@
         <v>206.5948252622855</v>
       </c>
       <c r="L34" t="n">
-        <v>319.8478634725039</v>
+        <v>319.8478634725038</v>
       </c>
       <c r="M34" t="n">
         <v>347.6102770876414</v>
@@ -37303,16 +37303,16 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>357.2241634420896</v>
+        <v>188.1275482700158</v>
       </c>
       <c r="K35" t="n">
-        <v>333.2054563520473</v>
+        <v>657.350868923212</v>
       </c>
       <c r="L35" t="n">
         <v>450.6453395738567</v>
       </c>
       <c r="M35" t="n">
-        <v>982.9326345813985</v>
+        <v>963.592454676522</v>
       </c>
       <c r="N35" t="n">
         <v>546.7107923205513</v>
@@ -37324,10 +37324,10 @@
         <v>394.2560863105253</v>
       </c>
       <c r="Q35" t="n">
-        <v>317.4027592462135</v>
+        <v>247.4105616249819</v>
       </c>
       <c r="R35" t="n">
-        <v>123.3613202595996</v>
+        <v>57.64490038661711</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37385,7 +37385,7 @@
         <v>93.03955272770824</v>
       </c>
       <c r="K36" t="n">
-        <v>254.5156756082065</v>
+        <v>237.9636821324931</v>
       </c>
       <c r="L36" t="n">
         <v>366.7619827807558</v>
@@ -37403,7 +37403,7 @@
         <v>310.4345167986727</v>
       </c>
       <c r="Q36" t="n">
-        <v>157.0938226408662</v>
+        <v>173.6458161165795</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>92.19555964934929</v>
+        <v>92.19555964934926</v>
       </c>
       <c r="K37" t="n">
         <v>252.0255350647807</v>
@@ -37470,13 +37470,13 @@
         <v>365.2785732749991</v>
       </c>
       <c r="M37" t="n">
-        <v>393.0409868901367</v>
+        <v>393.0409868901366</v>
       </c>
       <c r="N37" t="n">
         <v>390.3169421673883</v>
       </c>
       <c r="O37" t="n">
-        <v>347.9773194581129</v>
+        <v>347.9773194581128</v>
       </c>
       <c r="P37" t="n">
         <v>280.867991602951</v>
@@ -37540,16 +37540,16 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>357.2241634420896</v>
+        <v>188.1275482700158</v>
       </c>
       <c r="K38" t="n">
-        <v>333.2054563520473</v>
+        <v>657.350868923212</v>
       </c>
       <c r="L38" t="n">
         <v>450.6453395738567</v>
       </c>
       <c r="M38" t="n">
-        <v>533.419101088566</v>
+        <v>963.592454676522</v>
       </c>
       <c r="N38" t="n">
         <v>546.7107923205513</v>
@@ -37558,13 +37558,13 @@
         <v>502.7735374394198</v>
       </c>
       <c r="P38" t="n">
-        <v>701.4468267646862</v>
+        <v>394.2560863105253</v>
       </c>
       <c r="Q38" t="n">
-        <v>459.7255522848865</v>
+        <v>247.4105616249819</v>
       </c>
       <c r="R38" t="n">
-        <v>123.3613202595996</v>
+        <v>57.64490038661711</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,7 +37619,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>93.03955272770824</v>
+        <v>109.5915462034217</v>
       </c>
       <c r="K39" t="n">
         <v>237.9636821324931</v>
@@ -37640,7 +37640,7 @@
         <v>310.4345167986727</v>
       </c>
       <c r="Q39" t="n">
-        <v>173.6458161165795</v>
+        <v>157.0938226408662</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>92.19555964934929</v>
+        <v>92.19555964934928</v>
       </c>
       <c r="K40" t="n">
         <v>252.0255350647807</v>
@@ -37707,16 +37707,16 @@
         <v>365.2785732749991</v>
       </c>
       <c r="M40" t="n">
-        <v>393.0409868901367</v>
+        <v>393.0409868901362</v>
       </c>
       <c r="N40" t="n">
         <v>390.3169421673883</v>
       </c>
       <c r="O40" t="n">
-        <v>347.9773194581129</v>
+        <v>347.9773194581128</v>
       </c>
       <c r="P40" t="n">
-        <v>280.8679916029499</v>
+        <v>280.867991602951</v>
       </c>
       <c r="Q40" t="n">
         <v>124.8281495898296</v>
@@ -37777,7 +37777,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>219.0837464175489</v>
+        <v>357.2241634420896</v>
       </c>
       <c r="K41" t="n">
         <v>333.2054563520473</v>
@@ -37792,13 +37792,13 @@
         <v>546.7107923205513</v>
       </c>
       <c r="O41" t="n">
-        <v>502.7735374394198</v>
+        <v>576.9481110747836</v>
       </c>
       <c r="P41" t="n">
         <v>394.2560863105253</v>
       </c>
       <c r="Q41" t="n">
-        <v>459.7255522848865</v>
+        <v>247.4105616249819</v>
       </c>
       <c r="R41" t="n">
         <v>57.64490038661711</v>
@@ -37856,13 +37856,13 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>109.5915462034219</v>
+        <v>93.03955272770824</v>
       </c>
       <c r="K42" t="n">
         <v>237.9636821324931</v>
       </c>
       <c r="L42" t="n">
-        <v>366.7619827807558</v>
+        <v>383.3139762564695</v>
       </c>
       <c r="M42" t="n">
         <v>447.546326953198</v>
@@ -37935,28 +37935,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>92.19555964934929</v>
+        <v>92.19555964934922</v>
       </c>
       <c r="K43" t="n">
-        <v>252.0255350647807</v>
+        <v>252.0255350647806</v>
       </c>
       <c r="L43" t="n">
-        <v>365.2785732749991</v>
+        <v>365.278573274999</v>
       </c>
       <c r="M43" t="n">
-        <v>393.0409868901367</v>
+        <v>393.0409868901365</v>
       </c>
       <c r="N43" t="n">
         <v>390.3169421673883</v>
       </c>
       <c r="O43" t="n">
-        <v>347.9773194581129</v>
+        <v>347.9773194581128</v>
       </c>
       <c r="P43" t="n">
         <v>280.867991602951</v>
       </c>
       <c r="Q43" t="n">
-        <v>124.8281495898296</v>
+        <v>124.8281495898295</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38014,7 +38014,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>219.0837464175489</v>
+        <v>188.1275482700158</v>
       </c>
       <c r="K44" t="n">
         <v>333.2054563520473</v>
@@ -38023,7 +38023,7 @@
         <v>450.6453395738567</v>
       </c>
       <c r="M44" t="n">
-        <v>533.419101088566</v>
+        <v>710.9738700230213</v>
       </c>
       <c r="N44" t="n">
         <v>546.7107923205513</v>
@@ -38035,10 +38035,10 @@
         <v>394.2560863105253</v>
       </c>
       <c r="Q44" t="n">
-        <v>459.7255522848865</v>
+        <v>247.4105616249819</v>
       </c>
       <c r="R44" t="n">
-        <v>57.64490038661711</v>
+        <v>123.3613202595996</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,7 +38093,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>109.5915462034219</v>
+        <v>93.03955272770824</v>
       </c>
       <c r="K45" t="n">
         <v>237.9636821324931</v>
@@ -38105,7 +38105,7 @@
         <v>447.546326953198</v>
       </c>
       <c r="N45" t="n">
-        <v>473.9457332955739</v>
+        <v>490.4977267712875</v>
       </c>
       <c r="O45" t="n">
         <v>411.1235155762907</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>92.19555964934929</v>
+        <v>92.19555964934945</v>
       </c>
       <c r="K46" t="n">
         <v>252.0255350647807</v>
@@ -38181,19 +38181,19 @@
         <v>365.2785732749991</v>
       </c>
       <c r="M46" t="n">
-        <v>393.0409868901367</v>
+        <v>393.0409868901366</v>
       </c>
       <c r="N46" t="n">
         <v>390.3169421673883</v>
       </c>
       <c r="O46" t="n">
-        <v>347.9773194581129</v>
+        <v>347.9773194581128</v>
       </c>
       <c r="P46" t="n">
         <v>280.867991602951</v>
       </c>
       <c r="Q46" t="n">
-        <v>124.8281495898296</v>
+        <v>124.8281495898295</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
